--- a/news_data/2021_02.xlsx
+++ b/news_data/2021_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,54 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 해양관광테마 강정항 조성사업 ‘순항’</t>
+  </si>
+  <si>
+    <t>제주도, 해양관광테마 강정항 어언입 판매.복지시설 5월 준공</t>
+  </si>
+  <si>
+    <t>부동석 제주도관광협회장 연임</t>
+  </si>
+  <si>
+    <t>부동석 제주도관광협회장 연임…2024년까지 임기</t>
+  </si>
+  <si>
+    <t>제주도 내·외 23개 기관 '웰니스 관광산업 육성'위해 힘 모은다!</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 지원 26일 접수 마감</t>
+  </si>
+  <si>
+    <t>제주도관광협회장 선거, 부동석 현 회장 단독출마</t>
+  </si>
+  <si>
+    <t>제주도 자치경찰단, 관광지 코로나19 방역 홍보</t>
+  </si>
+  <si>
+    <t>제주도, 관광·대중교통 종사자 코로나19 전수 검사</t>
+  </si>
+  <si>
+    <t>제주도 문화관광해설사협회, 제주어해설집 발간</t>
+  </si>
+  <si>
+    <t>“줄이 어마어마…” 설 연휴, 관광객 '14만 명' 몰린 제주도 상황</t>
+  </si>
+  <si>
+    <t>부동석 제주도관광협회장 단독 출마…연임 가능성↑</t>
+  </si>
+  <si>
+    <t>제주공항 골프·등산 관광객 북적… 제주도 방역당국은 '초긴장'</t>
+  </si>
+  <si>
+    <t>제주도청, 코로나19 추가 확진자 발생… "관광버스 타고 제주 여행 중 확진"</t>
+  </si>
+  <si>
+    <t>JDC 인터넷면세점 확대 추진에 제주도-관광공사 '발끈'</t>
+  </si>
+  <si>
+    <t>제주도의 소리를 ‘카카오’에 담다ㆍㆍ초기관광벤처기업 ‘카카오패밀리’</t>
+  </si>
+  <si>
     <t>제주도, 코로나19 음성 확인되면 제주 공영 관광지 무료입장</t>
   </si>
   <si>
@@ -52,28 +100,73 @@
     <t>박호형 제주도의원, 웰니스관광 지원 조례 제정 위한 간담회 개최</t>
   </si>
   <si>
+    <t>제주도, 해양관광테마 강정항 조성사업 ‘순항’ &lt; 국내 &lt; 여행/레저 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:50 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 제주도, 해양관광테마 강정항 조성사업 ‘순항’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 여행/레저 국내 제주도, 해양관광테마 강정항 조성사업 ‘순항’ 기자명 정기환 기자 입력 2021.02.25 16:35 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 어업인 판매 및 복지시설 신축공사 5월 중 마무리 예정 사진= 제주특별자치도[디스커버리뉴스=정기환 기자] 제주특별자치도는 해양관광테마 강정항 조성사업의 일환으로 추진되는 어업인 판매 및 복지시설 신축공사가 5월중에 마무리될 예정이라고 밝혔다. 제주도는 강정마을의 공동체 회복과 지역발전을 위해 강정항의 해양·레져 기반시설을 확충하고 기존의 노후된 어항시설 보강 및 어항기능 재정비 등을 추진하고 있다. 이를 통해 지역경제 활성화를 도모하고 어항의 기능을 다양화해 지역주민의 정주여건을 개선해왔다. 해양관광테마 강정항 조성사업은 2015년부터 2018년까지 어항기반인 이안제 80m, 물양장 160m, 돌제 70m, 호안 40m, 준설 등을 추진했다. 이어 2018년부터는 어업인 소득증대와 어촌지역 경제 활성화를 위한 어업인 판매 및 복지시설 신축공사를 추진해왔다. 어업인 판매 및 복지시설은 총 47억2,400만원이 투입돼 서귀포시 강정동 4965-4번지에 지상 2층, 연면적 1674.6㎡ 규모로 건립됐다. 어업인 판매시설에는 신선어류를 보관하는 냉동·냉장창고 수족관 등과 이를 판매할 수 있는 수산물판매장, 어촌계사무실, 소매점, 해녀작업장 등이 들어선다. 복지시설에는 해녀휴게실과 샤워실, 탈의실 등이 갖춰진다. 양홍식 도 해양수산국장은 “강정항 내에 어업인 판매 및 복지시설이 기존 크루즈터미널, 생태탐방로 커뮤니티센터, 다이버지원센터 등과 연계됨으로써 지역주민들이 체감할 수 있는 강정마을의 공동체 회복과 지역발전의 기반이 될 것”이라며 “올해 5월까지 마무리될 수 있도록 최선을 다하겠다”고 말했다.&lt;정기환 기자 jeong9200@discoverynews.kr&gt; 정기환 기자 jeong9200@gmail.com 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 해양관광테마 강정항 어언입 판매.복지시설 5월 준공 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 해양관광테마 강정항 어언입 판매.복지시설 5월 준공 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 해양관광테마 강정항 어언입 판매.복지시설 5월 준공 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2021.02.25 17:08 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 해양관광테마 강정항 조성사업의 일환으로 추진되는 어업인 판매 및 복지시설 신축공사가 5월중에 마무리될 예정이라고 25일 밝혔다. 제주도는 강정마을의 공동체 회복과 지역발전을 위해 강정항의 해양·레져 기반시설을 확충하고 기존의 노후된 어항시설 보강 및 어항기능 재정비 등을 추진하고 있다. 이를 통해 지역경제 활성화를 도모하고 어항의 기능을 다양화해 지역주민의 정주여건을 개선해왔다. 해양관광테마 강정항 조성사업은 2015년부터 2018년까지 어항기반인 이안제 80m, 물양장 160m, 돌제 70m, 호안 40m, 준설 등을 추진했다. 2018년부터는 어업인 소득증대와 어촌지역 경제 활성화를 위한 어업인 판매 및 복지시설 신축공사를 추진해왔다. 어업인 판매 및 복지시설은 총 47억2400만원이 투입돼 서귀포시 강정동 4965-4번지에 지상 2층, 연면적 1674.6㎡ 규모로 건립된다. 어업인 판매시설에는 신선어류를 보관하는 냉동·냉장창고, 수족관 등과 이를 판매할 수 있는 수산물판매장, 어촌계사무실, 소매점, 해녀작업장 등이 들어선다. 복지시설에는 해녀휴게실과 샤워실, 탈의실 등이 갖춰진다. 양홍식 제주도 해양수산국장은 "강정항 내에 어업인 판매 및 복지시설이 기존 크루즈터미널, 생태탐방로, 커뮤니티센터, 다이버지원센터 등과 연계됨으로써 지역주민들이 체감할 수 있는 강정마을의 공동체 회복과 지역발전의 기반이 될 것"이라고 말했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>부동석 제주도관광협회장 연임 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 부동석 제주도관광협회장 연임 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 부동석 제주도관광협회장 연임 기자명 오형석 기자 입력 2021.02.21 16:13 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 부동석 제주특별자치도관광협회 제36대 회장 당선 [시사매거진/제주] 부동석 현 제주특별자치도관광협회 회장이 2월 19일 제주종합비즈니스센터 1층 회의실에서 개최된 2021년도 대의원총회에서 참석 대의원 만장일치로 제36대 제주특별자치도관광협회장에 당선되었다. 부동석 관광협회장 당선자는 지난 1년여 동안 코로나로 힘든 관광업계를 위해 무엇을 해야 할지, 수많은 고민들을 했다면서, 협회의 역할을 재정립하고, 그에 맞는 정책과 사업들을 추진하겠다는 의지를 피력했다. 지금까지 협회가 외형적 성장에 집중하면서 다양한 사업들을 했다면, 앞으로는 본래의 역할에 맞게 업계지원 정책과 사업들에 집중해서 코로나로 망가진 제주 관광업계를 복원할 수 있는 지원시스템을 마련해나가겠다는 것이다. 이를 위해 사무본부를 현장중심의 지원체제로 개편하고, 관광인들과의 소통을 위한 소통협력센터를 운영한다. 사무본부가 행정부터 업계의 홍보까지 업무지원도 강화하고, 모든 관광인과 동행하는 협회를 만들어 가겠다는 것이다. 또한 급변하는 관광시장에서 업계가 도태되지 않도록 맞춤형 컨설팅을 지원하고, 단체 관광객을 업계가 참여하여 유치할 수 있도록 마케팅을 확대해 나간다. 그리고 온․오프라인 마케팅을 강화하고, 탐나오를 통해 업계가 적은 비용으로 홍보, 판매할 수 있도록 지원할 계획이다. 그리고, 관광업계가 불합리하게 작용하고 있는 규제 개선에도 소홀함이 없도록 하면서, 문화․스포츠 등 타 산업과의 연계 방안을 강화하여 동반성장의 길을 만들어 나간다는 것이다. 부동석 제36대 관광협회장 당선자는 with코로나 시대 관광업계가 한몸 한뜻으로 함께해준다면 어떠한 어려움도 극복할 수 있을 거라는 확신을 하면서, 경청하고, 행동으로 보답하겠다는 말로 소회를 밝혔다. 한편 관광업계에서는 지난 2019년 보궐선거로 1년여간 협회를 운영했던 부동석 회장이 이번 선거를 통해 3년의 임기동안 코로나로 하지 못했던 많은 일들을 해 나갈 것으로 기대하고 있다. 오형석 기자 yonsei6862@Gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 부동석 회장 연임…2024년까지 임기 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 부동석 회장 연임…2024년까지 임기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회 부동석 회장 연임…2024년까지 임기 기자명 이동건 기자					(dg@jejusori.net) 입력 2021.02.19 15:18 댓글 2 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 관광협회, 19일 대의원총회 열어 만장일치로 결정 부동석 제주관광공사 협회장이 19일 연임에 성공했다.부동석 제주도관광협회 회장이 연임에 성공했다. 관광협회는 19일 제주종합비즈니스센터에서 ‘2021년도 대의원총회’를 열어 참석 대의원 만장일치로 제36대 회장에 현직인 부 회장이 당선됐다고 밝혔다. 부 회장의 임기는 오는 2024년까지 3년이다. 지난 8~9일 진행된 후보 등록 기간에 부 회장이 단독 입후보하면서 부 회장의 연임이 점쳐졌다. 부 회장은 이날 대의원 총회에서 “지금까지 관광협회는 외형적인 성장에 집중하며, 다양한 사업들을 추진했다. 협회 본래의 역할에 맞게 업계 지원정책과 사업에 집중하면서 업계가 성장할 수 있는 시스템을 마련하겠다”고 말했다. 이어 “사무본부를 현장중심의 지원체계로 개편하겠다. 전 직원이 모든 회원사와 소통하는 회원 전담제를 운영해 모든 회원사 의견에 귀 기울여 현장에 필요한 정책과 사업을 발굴하고 추진하겠다”고 약속했다. 부 회장은 “소통협력센터도 상시적으로 운영하겠다. 사무본부의 업무 지원범위를 확대해 단순 사업 지원에서 행정부터 홍보까지 업무지원도 강화하겠다. 개별관광객 대상으로 집중 추진되는 마케팅의 타깃을 구분해 단체 관광객을 업계가 참여·유치할 수 있도록 마케팅을 확대하겠다”고 강조했다. 부 회장은 “제주 경제의 70% 이상을 차지하는 관광서시브 산업이 소수단체 반대에 의견에 부집혀 나가지 못하고 정체되고 있다. 관광을 위한 투자 유치는 점점 어려워지고 있고, 제2공항 건설 등 정책도 반대에 막혀 추진되지 못하고 있다. 같은 일이 되풀이 되지 않도록 관광인의 의견을 모아 적극적으로 대응하겠다”고 말했다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 내·외 23개 기관 ‘웰니스 관광산업 육성’위해 힘 모은다! - 투어코리아 - No.1 여행·축제 뉴스 × 전체기사 이슈 전체 정책 지역 사회 피플 여행 전체 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 전체 국내인기축제 세계축제 라이프 전체 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 최종편집 : 2022-10-11 14:34 (화) 처음으로 로그인 회원가입 facebook twitter rss post kakaoch instagram in-naver 전체기사 이슈 정책 지역 사회 피플 여행 국내여행 해외여행 맛집멋집 리조트 펜션 휴양림 호텔레스토랑 Green Tour 여행사 축제 국내인기축제 세계축제 라이프 팁뉴스 문화 패션아웃도어 레포츠 의료관광 관광청 경제 기사검색 검색 실시간 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 도시민박업·한옥체험업 창업의 모든 것 '서울스테이 사업설명회' 18일 개최 대한민국 특별귀화자 1호 인요한, 2023순천만국제정원박람회 홍보대사 위촉 고양시, CJ라이브시티 조기 완공 추진 '민관 TF팀' 첫 회의 개최 풍속·해학 등 김홍도 예술혼 재현 '안산 김홍도축제' 4년만에 오프라인 개최 3년만에 만나는' 서울억새축제'서 은빛 감성 가을 낭만 즐겨요! 고창문화관광재단, 고창형 플리마켓 '고창한장 단풍마켓' 개최 핫뉴스 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 공주 금강신관공원 코스모스 활짝 감성 채워주는 공주 힐링스폿! "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! [포토] 핑크뮬리 유혹하는 함평 석두마을 올가을, ‘대전효문화뿌리축제’에서 뿌리 찾는 즐거움에 빠져볼까! 서울여행 인기...일본 최대 관광박람회서 서울홍보관 북적북적 '수트라하버 리조트', MZ세대 겨냥 해외 골프패키지 홈쇼핑 판매 10월, 축제 분위기로 핫 한 '여수' 여행 재미에 빠져 봐~ 이전 다음 제주도 내·외 23개 기관 ‘웰니스 관광산업 육성’위해 힘 모은다! 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 이슈 제주도 내·외 23개 기관 ‘웰니스 관광산업 육성’위해 힘 모은다! 정하성 기자 승인 2021.02.18 16:22 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 민ㆍ관ㆍ학 협력 버넌스 구축 및 공동선언문’ 18일 채택 제주관광공사와 23개 도내·외 기관 및 단체는 ‘제주형 웰니스 관광산업 육성을 위한 공동선언문’을 18일 제주웰컴센터에서 채택하고, 코로나19로 침체된 제주 지역경제 활성화를 위해 공공과 민간이 힘을 모으기로 했다. 공동선언문 채택 배경에는 지난해 코로나19로 인해 제주경제 성장률이 -3% 내외로 추락하고 제주 입도 관광객 역시 지난해 1,023만명으로 2019년 대비 33%가 감소하는 등 관광산업뿐만 아니라 제주경제 전반에 극심한 어려움이 처해 있기 때문이다. 이러한 어려움을 타개하기 위해 도내·외 경제, 연구, 관광 관련 23개 기관․단체는 민관학 협력 거버넌스를 구축해 신관광 트렌드인 힐링, 건강, 치유, 마을 관광을 융복합한 제주형 웰니스 관광산업을 육성, 경쟁력 강화에 집중하기로 했다. 또 제주형 웰니스 관광산업을 통해 ▲전문 인력 양성을 통한 일자리 창출, ▲관광을 통한 지역주민의 소득 창출, ▲제주의 장점을 활용한 새로운 사업 창출, ▲제주상품의 경쟁력 확보를 통한 수출활로 모색 등 제주관광산업의 질적 성장을 선도해 나갈 방침이다. 보다 구체적으로 23개 기관 및 단체는 ▲제주 웰니스 관광산업 육성을 위한 제도 개선, ▲새로운 환경변화에 대응하기 위한 연구조사 강화, ▲제주형 웰니스 관광기업 육성 지원, ▲지속 가능한 생태계 조성을 위한 맞춤형 인력양성,▲ 신규 사업 기획 및 국비 발굴 등 예산확보 ▲웰니스와 마을관광 콘텐츠 융복합상품 개발 및 브랜딩, ▲권역별 제주 웰니스 산업 클러스터 구축, ▲웰니스 관광 여행자를 위한 접근성 및 편의성 제고 등을 위해 공동 노력하기로 했다. 또 ▲글로벌 경쟁력 강화를 위해 국내·외 공동 마케팅 강화 ▲ICT 기술 융합 스마트 웰니스 관광 환경조성, ▲웰니스 관광 국제포럼 개최 등을 공동 추진한다. 이번 공동선언을 위한 업무협력의 유효기간은 선언일로부터 3년간이다. 제주관광공사는 “제주경제는 지난해 코로나19로 6만여 명에 이르는 고용유지지원금에도 불구, 관광사업체의 휴폐업이 지속되고 있다”며 “위드(with) 코로나 및 포스트(post) 코로나 시대의 관광객은 소규모 형태의 그룹 및 개별여행객으로 한 곳에서 장기간 체류하는 형태로 바뀔 전망으로, 이러한 시기에 도내·외 기관․단체의 제주 웰니스 관광산업 육성을 위한 공동 협력 선언은 그 의미가 매우 크다”고 전했다. 또 제주스타트업협회 남성준 협회장은 “150여 개의 제주 혁신 스타트업 네트워크와 협력 체계를 바탕으로, 새로운 시각으로 바라본 제주관광에 대한 문제 해결이 기대된다”며 “개별단위의 접근방식이 아닌 참여기관 및 단체와의 공동 협력이 무엇보다 중요할 것”이라고 말했다. 제주농어촌체험휴양마을협의회 임안순 회장은 “제주는 마을관광 자원과 콘텐츠 기반은 갖춰져 있으나, 그것을 웰니스 관광과 같은 관광 트렌드와 접목시켜 융복합하려는 노력이 앞으로 중요할 것”이라며 “이번 민관학 거버넌스 구축이 제주농어촌체험휴양마을 뿐만 아니라 관광산업을 견인하는 핵심 주체기관과 공동의 목표를 실천해 나가는 의미 있는 첫 걸음이 되기를 기대한다”고 밝혔다. 한편, 이번 공동선언문에 참여한 민간단체는 곶자왈공유화재단(이사장 김국주), 제주관광협회(협회장 부동석), 제주농어촌체험휴양마을협의회(회장 임안순), 제주상공회의소(회장 김대형), 제주스타트업협회(협회장 남성준), 제주올레(이사장 서명숙) 등이다. 또 연구기관으론ㄴ 제주관광학회(학회장 홍성화), 제주연구원(원장 김상협)과 도내 대학교는 제주관광대학교(총장 김성규), 제주국제대학교(총장 고병련), 제주대학교(총장 송석언), 제주한라대학교(총장 김성훈)가 참여한다. 제주 지방공기업 및 출자․출연기관에선 제주관광공사(사장 고은숙), 제주국제컨벤션센터(사장 김의근), 제주에너지공사(사장 황우현), 제주컨벤션뷰로(이사장 김재웅), 제주테크노파크(원장 태성길), 제주특별자치도개발공사(사장 김정학), 제주특별자치도경제통상진흥원(원장 문관영)이 참여하고 있다. 국가 공기업에선 제주국제자유도시개발센터(이사장 문대림), 한국 공항공사 제주지역본부(본부장 손종하), 한국관광공사 제주지사(지사장 차창호), 한국농어촌공사 제주지역본부(본부장 서상기) 등이 참여한다. 저작권자 © 투어코리아 - No.1 여행·축제 뉴스 무단전재 및 재배포 금지 정하성 기자 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 당신만 안 본 뉴스 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 공주 금강신관공원 코스모스 활짝 감성 채워주는 공주 힐링스폿! "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 에디터 초이스 TRIP 신비로운 남원 서어나무숲에서 즐기는 가을 향기 BIZ 반짝이는 내 차를 위해, 세차 산업의 역사 FOOD 절대 갈변하지 않는 밤 보관 특급비법 CULTURE '월수금화목토' 아직은 질리지 않는 박민영표 로맨틱 코미디 LIFE 동요대회 입상한 노노카짱의 근황 투어코리아 Cover 145호 2022-10-01 구독신청 지난호보기 기사제보 광고문의 기자회원 신청 투어코리아 SNS 주요기사 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 대전 0시 뮤직페스티벌, 관광객 등 50만 명 찾아..내년 축제 기대감 높여 투어코리아가 만난사람 [인터뷰] 박일호 밀양시장 “관광객이 감동하는 밀양 만들기 위해 고민” 국내축제 3년만에 만나는' 서울억새축제'서 은빛 감성 가을 낭만 즐겨요! 세계축제 진정한 미식가 축제 ‘싱가포르 푸드 페스티벌’ 팬데믹 이후 첫 대면 개최 국내여행 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 테마여행 올가을, 댕댕이와 크루즈 여행떠나요! 아시아 인스타그램 ‘좋아요’ 부르는 '힙한 홍콩 카페' 어디? 유럽 가을 낭만 더하는 이스탄불의 거리 탑3 미국·캐나다·중남미 배우 이기우 추천 캘리포니아 펫 프렌들리 여행지, '아빌라 비치' 중동·아프리카 로맨스 인 두바이? 사막에서 별빛 샤워, 관람차에서 야경 만끽! 오세아니아 '럭셔리 항공 투어'로 호주의 대자연 색다르게 즐겨봐! 전문가칼럼 [119기고] 공동주택 화재 안전은 피난설비 올바른 숙지부터 시작 최신뉴스 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 감빛 곱게 물든 전북 '단풍 천리길' 11개 코스 걸으며 힐링 포토뉴스 경주시, 총 상금 1600만원 내건 ‘2022 경주 숏폼 영상 공모전’ 실시 마리아나관광청, 인플루언서·크리에이터' 여행경비 지원 프로그램 발표 태국 디렉터 &amp; 아티스트 Mr. ROM, 서울에서 첫 개인 사진전 ‘REBORN’ 진행 담양 죽녹원, 내비게이션 검색량 1위..전남 대표 관광지 ‘입증’ 인기뉴스 1 철원군, 고석정꽃밭·주상절리길 인기에 '천만 관광객 시대' 눈앞 2 "거 참 재밌네!"...오감이 흥겨운 안동국제탈춤페스티벌 3 그곳에 가면...해양도시 포항여행 매력에 쏙 빠진다! 4 올 가을, 우리는 ‘백제문화제 판타지아’에 빠진다 5 공주 금강신관공원 코스모스 활짝 6 감성 채워주는 공주 힐링스폿! 7 "가을여행 멀리 가지마세요" 서울 도심 속 공원으로 가족소풍을! 8 [포토] 핑크뮬리 유혹하는 함평 석두마을 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 법인명 : (주)태건미디어 사업자 등록번호 : 105-87-36240 서울특별시 종로구 송월길 136 301호 발행·편집인 : 유경훈 청소년보호책임자 : 조성란 대표전화 : 02-326-0002 이메일 : webmaster@tournews21.com 투어코리아 정기간행물 등록번호 : 종로 라 00420 등록일 : 2009-12-14 투어코리아뉴스 인터넷신문 등록번호 : 서울 아 03491 등록일 : 2014-12-18 발행일 : 2014-12-18 투어코리아 - No.1 여행·축제 뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 투어코리아 - No.1 여행·축제 뉴스. All rights reserved. mail to webmaster@tournews21.com 위로</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 지원 26일 접수 마감 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 관광진흥기금 지원 26일 접수 마감 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 관광진흥기금 지원 26일 접수 마감 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2021.02.18 18:07 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 코로나19로 직격탄을 맞은 관광사업체의 경영위기 극복 등 어려움을 지원하기 위한 상반기 제주관광진흥기금 지원 신청이 오는 26일 마감된다고 전했다. 제주도는 조만간 기금 지원 접수가 마감됨에 따라 신청하지 않은 관광사업체들이 접수마감 일자에 늦지 않게 접수해줄 것을  당부했다. 지난 1월 25일부터 2월 16일까지 제주관광진흥기금을 접수한 결과, 총 204건·442억 원이 접수된 것으로 확인됐다. 업종별로는 △여행업 54건·42억원 △관광숙박업 34건·169억원 △일반숙박업 7건·7억원 △전세버스업 11건·16억원 △관광식당업 14건·19억원 △렌터카 44건·84억 △기타 40건·105억원 등으로 집계됐다. 제주도는 융자 추천금액 선정 방식을 지난해에는 전년도 매출액 범위 내에서 선정했지만, 올해에는 코로나19로 인한 매출 감소 상황 등을 고려해 최근 3년간 평균 매출액범위 내에서 지원을 받을 수 있도록 했다. 또 전년도 융자실적과 관계없이 융자 추천 금액 한도 내에서 추가로 융자를 추천하는 방식으로 추진해 조건을 대폭 완화했다. 이와 함께 과징금 등 행정처분 받은 자의 신청제한 사항과 융자지침 위반 등으로 자금 회수된 자의 신청 제한과 투자진흥지구 내 사업체의 신청 제한을 폐지하는 등 신청대상의 제한을 추가로 완화했다. 제주관광진흥기금 신청은 이달 26일까지 제주웰컴센터 내 설치된 관광진흥기금 특별지원센터(T.740-6095~6097)에서 접수받고 있다. 김재웅 도 관광국장은 “앞으로 관광진흥기금 조례 개정을 통해 어려움에 처한 관광사업체 대부분이 융자 혜택을 받을 수 있도록 보증재단 출연 근거를 마련 등 영세 관광사업체를 위한 특별 보증도 시행해 나가겠다”고 밝혔다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회장 선거, 부동석 현 회장 단독출마 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도관광협회장 선거, 부동석 현 회장 단독출마 등록 2021.02.17 13:47:32 작게 크게 19일 대의원총회 열어 36대 회장 선출 부동석 제주도관광협회장 [제주=뉴시스] 양영전 기자 = 보궐선거로 당선된 제35대 부동석(55) 제주도관광협회장이 차기 협회장 선거에 단독 출마, 연임 가능성이 커졌다. 제주도관광협회에 따르면, 부동석 회장이 최근 단독 입후보했다. 도관광협회는 19일 대의원총회를 열고 차기 회장을 선출할 예정이다. 부 회장이 단독 출마하면서 대의원들은 찬·반 투표를 하게 된다. 협회 정관에 따른 대의원은 당연직 48명을 포함한 170명이며, 참석 대의원의 과반수 찬성을 얻으면 당선이기 때문에 부 회장의 연임 가능성이 높다는 분석이다. 부 회장은 2019년 김영진 당시 회장이 총선 출마를 위해 사퇴하면서 치러진 보궐선거에 단독 출마해 대의원 만장일치로 당선됐다. 회장의 임기는 3년이며, 부 회장은 올해 2월 만료되는 김 전 회장의 잔여 임기를 맡아 왔다. 회장은 3회에 한해 연임이 가능하다. ◎공감언론 뉴시스 0jeoni@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 권익현 군수, '세계로 웅비하는 부안 대도식 비약' 최선 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 금감원, 금융사 직원에 '프리패스 출입증' 발급 경북대병원 제왕절개, 강원대병원보다 100만원 이상 비싸 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 금감원, 금융사 직원에 '프리패스 출입증' 발급 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 자치경찰단, 관광지 코로나19 방역 홍보 - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 제주 제주도 자치경찰단, 관광지 코로나19 방역 홍보 입력: 2021.02.16 15:25 / 수정: 2021.02.16 15:25 제주도 자치경찰단은 오는 3월부터 주요 관광지에 기마순찰을 활용한 방역지침 준수 지도활동을 실시해 코로나19 예방과 병행한 관광지 질서유지 활동을 전개한다. / 제주도 제공자치경찰단, 기마순찰 통해 방역지침 준수 지도활동 및 관광지 질서유지 활동 병행[더팩트｜제주=문형필 기자] 제주도 자치경찰단(단장 고창경)은 오는 3월부터 주요 관광지에 기마순찰을 활용한 방역지침 준수 지도활동을 실시해 코로나19 예방과 병행한 관광지 질서유지 활동을 전개한다고 16일 밝혔다.자치경찰단은 코로나19 예방문구를 순찰 마필에 부착, 섭지코지, 사려니숲길, 자연사박물관 등 관광지를 중심으로 기마순찰을 실시하고 이를 통해 방역수칙에 대한 관광객들의 경각심을 높이고 마스크 미 착용자에 대한 지도활동을 실시하는 등 코로나19 확산을 막기 위한 예방활동에 힘쓴다.더불어 관광지와 연계한 ‘찾아오면 만나는 자치경찰기마대’를 운영하는 가운데 치안 수요가 증가하는 요일·시간대를 특정해 기마순찰을 실시하는 등 관광지 범죄예방 및 질서유지에도 만전을 기한다는 방침이다.이와 함께 코로나19 진정 시를 대비해 도내 주요 행사지원, 어린이·장애인 승마체험 등의 프로그램도 차질 없이 준비할 것이다.코로나19 장기화로 침체된 관광 활성화를 위해 제주목관아지 수문장 교대식 연계 기마퍼레이드와 제주관광공사, 관광협회 등이 주최하는 지역행사 등에 지원활동을 실시해 이색적인 볼거리를 제공할 수 있도록 준비하고 있다.자치경찰단은 "방역수칙 홍보를 통한 예방활동에 힘쓰고 제주를 찾는 관광객뿐만 아니라 도민들에게 포스트 코로나 시대에 코로나19로 지친 마음을 위로할 수 있도록 최선을 다할 것"이라고 했다.hyejun@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
+  </si>
+  <si>
+    <t>제주도, 관광·대중교통 종사자 코로나19 전수 검사 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 관광·대중교통 종사자 코로나19 전수 검사 파이낸셜뉴스입력 2021.02.15 19:27수정 2021.02.15 19:27 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 설 연휴 기간 동안 관광개·귀성객 15만2988명 방문원희룡 지사 “잠복기 끝나는 이달 말까지 예의 주시” 설 연휴를 하루 앞둔 10일 오전 제주 서귀포시 안덕면 산방산 인근 유채꽃밭에서 관광객들이 여유를 즐기고 있다. 2021.2.10/뉴스1 [제주=좌승훈 기자] 제주특별자치도는 설 연휴 이후 코로나19 특별 방역 대책 기간인 15일부터 오는 28일까지 관광·대중교통 종사자를 대상으로 코로나19 무료 진단 검사를 진행하고 있다. 설 연휴 제주 방문객은 연휴를 하루 앞둔 지난 10일 3만1489명을 비롯해 11일 3만6326명, 12일 2만8136명, 13일 2만5135명, 14일 3만1902명 등 총 15만2988명에 달한다. 당초 예상치 보다 1만명이 넘는 인원이 제주를 찾아 코로나19 바이러스 잠복기가 끝나는 이달 말까지 긴장의 끈을 놓지 못하고 있다. 원희룡 제주지사는 15일 오전 제주도청 탐라홀에서 열린 주간정책 조정회의를 주재하고 “설 연휴 전국 이동 상황을 고려해 이달 말까지 코로나19 확진자 발생 추이를 예의주시 해야 한다”면서 “설 연휴 이후 코로나19 대응 방역과 관련해 도민생활에 나타나는 변화들을 긴밀히 모니터링하며 대응해달라”고 주문했다. 도는 이에 따라 우선 관광지 특성상 불특정 다수와 접촉, 감염 우려가 큰 도민을 대상으로 진단 검사를 진행해 지역 확산을 막겠다는 구상이다. 제주시 등록 관광사업체 1527곳·서귀포시 540곳의 종사자가 무료 진단 검사 대상에 포함됐다. 택시 종사자 5300명과 버스 운송업체 종사자 1900명도 무료로 검사를 받을 수 있다. 제주도는 개인택시조합원과 일반택시조합 34개 업체에 공문을 보내 진단 검사를 받을 것을 권고했다. 제주도관광협회 소속 회원사 1080곳에도 관련 사항을 안내했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 문화관광해설사협회, 제주어해설집 발간 &lt; 문화일반 &lt; 문화 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도 문화관광해설사협회, 제주어해설집 발간 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화 문화일반 제주도 문화관광해설사협회, 제주어해설집 발간 기자명 한형진 기자					(cooldead@naver.com) 입력 2021.02.15 16:45 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도 문화관광해설사협회(협회장 김태수)는 최근 제주어 해설집 ‘제주, 제주어로 곧다’를 펴냈다.제주어 해설집은 제주의 역사·문화·자연·민속·설화를 제주어로 소개하는 자료집이다. 제주어를 보존하고 제주의 문화와 정신을 이해하기 위한 취지를 담았다.협회는 “세월의 변화 속에 일상생활에서 제주어를 사용하는 경우가 줄고 있는 게 현실이다. 제주어 해설집과 함께 문화관광해설사들은 제주어를 보존하고, 육성하는데 일조하겠다”고 밝혔다.문의제주특별자치도 문화관광해설사협회제주시 도령로40 하와이 오피스탤 823호(제주도 문화관광해설사협회 사무실) 한형진 기자 cooldead@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>“줄이 어마어마…” 설 연휴, 관광객 '14만 명' 몰린 제주도 상황 | 위키트리 위키트리 사회 menu clear 경제 일반 산업 전자 자동차 IT·통신·게임 에너지·화학 조선·철강·중공업 항공·물류 건설·부동산 유통 금융·증권 제약·바이오 엔터 방송 셀럽 라이프 일반 리빙 푸드 패션뷰티 게임 동물 건강 스포츠 사회 일반 교육 정치 문화 일반 영화 음악 월드 토픽 한류 지역취재본부 전체 부산경남 경기북부 광주전남 경북동부 대구경북 전북 세종대전충청 베스트클릭 제보 경제 엔터 라이프 스포츠 사회 정치 문화 월드 지역취재본부 검색 “줄이 어마어마…” 설 연휴, 관광객 '14만 명' 몰린 제주도 상황 2021-02-13 12:00 add remove print link 공항부터 많은 인파로 붐빈 제주도 설 연휴 맞아 제주도에 관광객 몰려 이하 JTBC '뉴스룸' 설 연휴를 맞아 관광객 14만 명이 몰린 제주도 상황이 공개됐다. 지난 12일 JTBC는 제주도 현지 상황을 보도했다. 취재진이 찾은 제주도는 공항부터 많은 인파로 붐볐다. SNS에서 유명하다는 제주도 한 도넛 가게 앞에는 사람들이 길게 줄을 늘어섰다. 줄서기에 합류한 기자는 30분 만에 도넛 한 박스를 구매했다. 예약이 꽉 찬 제주 호텔은 관광객이 몰려 주차 자리를 찾기도 어려웠다. 한 제주도민은 취재진과 인터뷰에서 "관광객들 안 왔으면 좋겠다"며 불안감을 감추지 못했다. 실제 설 연휴가 시작된 지난 10일부터 제주도에는 관광객들이 쏟아져 들어왔다. 연휴 시작 3일째인 지난 12일까지 코로나19 확진자는 8명 발생했다. 그중 절반은 관광객으로 확인됐다. 제주도는 연휴 기간 동안 종합상황실을 운영하는 등 방역에 총력을 기울이겠다고 밝혔다. 유튜브, JTBC 'JTBC News' 설연휴 제주도 제주도 코로나 제주도 관광 home 윤희정 기자 hjyun@wikitree.co.kr 기사제보 copyright '위키트리'라는 출처를 표시하는 경우에 한하여, 누구라도 위키트리 컨텐츠를 제한 없이 이용할 수 있습니다. 위키트리는 뉴스 스토리텔링 가이드라인을 엄격히 준수합니다. 서브 콘텐츠 영역 WIKITREE TV 네이티브 광고 베스트 베스트 클릭 푸터 메뉴 keyboard_arrow_down WIKITREE HOME PAGE TAGSHOP 제보 파운데이션 COMPANY SOCIAL AD SERVICE WIKITREE NOW RECRUIT VERTICAL 펫 오늘은머니 새모네모 뉴스마켓 바바바 SITE 약관 및 운영원칙 개인정보취급방침 청소년보호정책 사이트맵 서울시 마포구 성암로 189 (상암동, K-biz DMC타워) 13층 (주)소셜뉴스 | 02-3789-8900 | 등록번호: 서울 아 01019 | 등록일자: 2009. 11. 10 최초 발행일: 2010. 02. 02 | 발행인 · 편집인 : 이원호 | 편집국장 : 서기찬 | 청소년 보호 책임자 : 손기영 크리에이티브커먼즈 저작자표시-동일조건변경허락 2.0에 따라 이용하실수 있습니다. © Social News Co., Ltd. All Right Reserved. 위키트리 페이스북 위키트리 트위터 위키트리 인스타그램 위키트리 유튜브 위키트리 인스타그램</t>
+  </si>
+  <si>
+    <t>부동석 제주도관광협회장 단독 출마…연임 가능성↑ &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 부동석 제주도관광협회장 단독 출마…연임 가능성↑ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 부동석 제주도관광협회장 단독 출마…연임 가능성↑ 기자명 이동건 기자					(dg@jejusori.net) 입력 2021.02.13 15:00 댓글 11 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 관광협회, 오는 19일 대의원총회 열어 제36대 회장 선출 보궐선거로 당선된 제35대 부동석 제주도관광협회장의 연임 가능성이 높아졌다. 도관광협회는 오는 19일 오후 2시부터 제주종합비즈니스센터에서 대의원총회를 열어 제36대 회장을 선출할 예정이다. 지난 8일부터 이틀간 진행된 후보 등록에는 현직인 부동석 회장이 단독 입후보했다. 부동석 회장은 회장 재출마를 위해 필요한 회원 50인 이상 추천과 함께 등록금 2000만원 납부 등 절차를 거쳤다.  현직인 부 회장이 단독 출마함에 따라 대의원들은 부 회장에 대한 찬·반 투표를 진행할 계획이다. 관광협회 안팎에서는 협회 분과위원장을 맡고 있는 K씨의 입후보 가능성도 점쳐졌으나, K씨가 출마 의지를 접은 것으로 알려졌다.  관광협회장은 대의원총회에서 간접선거로 선출되며, 정관에 따른 대의원은 당연직 48명을 포함한 180명 이내다. 당연직이 아닌 대의원은 각 업종별 회원수와 회비 납부실적 비율, 협회 기여도 등에 따라 이사회에서 결정된다.부 회장은 2019년 김영진 전 회장이 총선 출마를 위해 사퇴하면서 진행된 보궐선거에 단독 출마해 대의원 만장일치로 당선됐다. 회장의 임기는 3년이나, 부 회장은 보궐선거에서 당선돼 올해 2월로 마무리되는 김 전 회장의 잔여 임기를 수행해 왔다. 관광협회 회장은 3회에 한해 연임할 수 있다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주공항 골프·등산 관광객 북적… 제주도 방역당국은 '초긴장' | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주공항 골프·등산 관광객 북적… 제주도 방역당국은 '초긴장' 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주공항 골프·등산 관광객 북적… 제주도 방역당국은 '초긴장' 송고시간2021-02-11 11:25 요약 beta 닫기 설 연휴 첫날인 11일 3만명 이상의 입도객이 제주를 방문할 것으로 예상되는 가운데 제주국제공항 도착장은 오전부터 크게 붐볐다. 설 연휴 입도객이 밀려들기 시작되자 도 방역당국엔 비상이 걸렸다. 지난 8일과 10일 입도한 관광객이 신종 코로나바이러스 감염증(코로나19) 확진 판정을 받는 등 관광객을 통한 감염 확산세가 심상치 않은 상황이기 때문이다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 박지호 기자 기자 페이지 관광객 방역 수칙 위반 확진 시 고발·구상권 청구 등 강력 조치 (제주=연합뉴스) 박지호 기자 = 설 연휴 첫날인 11일 3만명 이상의 입도객이 제주를 방문할 것으로 예상되는 가운데 제주국제공항 도착장은 오전부터 크게 붐볐다. 연휴 첫날 붐비는 제주공항 (제주=연합뉴스) 박지호 기자 = 설 연휴 첫날인 11일 오전 제주국제공항 도착장에서 입도객들이 제주도가 배포하는 마스크를 받아가고 있다. 2021.2.11 jihopark@yna.co.kr 예년의 도착장 풍경과는 달리 이날 도착장에선 한 손에 선물 보따리, 다른 한 손에 짐가방을 끌고 오는 이들이나 한복을 입은 이들의 모습은 거의 보이지 않았다. 대신 골프백을 카트에 싣고 도착장을 나서거나 등산복 차림에 대형 배낭을 맨 이들의 모습이 눈에 많이 띄었다. 광고 도착장 스크린 도어 앞에서는 제주도 관계자들이 제주안심코드 이용을 독려하며 입도객들에게 마스크를 무료로 나눠줬다. 설 연휴 첫날 붐비는 제주공항 (제주=연합뉴스) 박지호 기자 = 설 연휴 첫날인 11일 오전 제주국제공항 도착장이 입도객들로 붐비고 있다. 2021.2.11 jihopark@yna.co.kr 도착장을 나서 공항 바로 밖의 전동킥보드를 빌려 시내 관광을 하려는 이들도 다수 눈에 띄었고, 택시 승강장엔 입도객들을 태우려는 택시들이 수백ｍ 줄을 이루고 있었다. 렌터카 차고지로 이동하려는 입도객들로 업체가 운영하는 셔틀버스가 만석 상태로 이동하는 모습도 보였다. 설 연휴 입도객이 밀려들기 시작되자 도 방역당국엔 비상이 걸렸다. 지난 8일과 10일 입도한 관광객이 신종 코로나바이러스 감염증(코로나19) 확진 판정을 받는 등 관광객을 통한 감염 확산세가 심상치 않은 상황이기 때문이다. 방역당국은 코로나 진단검사를 통해 음성 판정을 받고 제주를 방문해 줄 것을 강력히 권고하고, 방역 수칙을 지키지 않고 제주에 와 확진 판정을 받는 관광객에게 감염병의 예방 및 관리에 관한 법률 위반으로 고발 등 강력하게 대응할 방침이다. 연휴 첫날 붐비는 제주공항 (제주=연합뉴스) 박지호 기자 = 설 연휴 첫날인 11일 오전 제주국제공항 도착장이 입도객들로 붐비고 있다. 2021.2.11 jihopark@yna.co.kr 도는 입도 전 검사를 통해 음성 확인서를 제출하는 귀성객과 여행객에게는 도내 주요 관광지 입장료 할인 등을 제공해 주는 방안을 실시하기로 했다. 반면에 미검사자가 입도 후 확진돼 방역에 막대한 피해를 주는 등 귀책 사유가 발생한다면 '감염병의 예방 및 관리에 관한 법률'에 근거해 구상권을 청구하는 등 엄중히 대처할 계획이다. 제주에서는 지난해부터 입도객 중 발열 증상자나 코로나19 유증상자를 대상으로 코로나19 의무검사를 주요 내용을 하는 특별 행정 조치를 발동된 상태다. 이에 따라 입도객 중 체온이 37.5도 이상이면 도 방역당국의 지시에 따라 진단검사를 의무적으로 받아야 하며 판정 결과가 나올 때까지 도내에 마련된 거주지 또는 예약 숙소 등에서 의무 격리를 해야 한다. 제주 도착한 입도객들 (제주=연합뉴스) 박지호 기자 = 설 연휴 첫날인 11일 오전 제주국제공항에 도착한 입도객들이 택시승강장으로 향하고 있다. 2021.2.11 jihopark@yna.co.kr 도는 특별행정 조치 위반 시에는 감염병예방법 제79조의 3호에 따라 1년 이하의 징역이나 1천만원 이하의 벌금에 처할 수 있다고 설명했다. 도는 또 마스크 미착용, 출입자 명부 미작성 등 주요 방역 수칙 위반 시에는 감염병예방법에 근거해 사업주에 1차 150만원, 2차 300만원의 과태료를 부과하며 위반자에게는 개별 10만원의 과태료를 물게 할 계획이다. 유튜브로 보기 https://youtu.be/aGwSXQcD08c jihopark@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/02/11 11:25 송고 #제주국제공항 설 연휴 첫날 방역 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>JDC 인터넷면세점 확대 추진에 제주도-관광공사 ‘발끈’ &lt; 경제일반 &lt; 경제 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 JDC 인터넷면세점 확대 추진에 제주도-관광공사 ‘발끈’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제일반 JDC 인터넷면세점 확대 추진에 제주도-관광공사 ‘발끈’ 기자명 이동건 기자					(dg@jejusori.net) 입력 2021.02.08 11:26 댓글 19 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도, 관세청에 공문 보내 “강자독식 구조 우려” 공식 반대입장 표명 제주국제공항에서 운영중인 JDC 지정면세점. ⓒ제주의소리 자료사진.제주 공항만에서 지정면세점을 운영하는 제주국제자유도시개발센터(JDC)가 인터넷 면세점 운영 확대를 추진하자 제주도와 제주관광공사가 즉각 반발했다. 관세청은 제2019-60호 ‘제주국제자유도시 지정면세점 운영에 관한 고시’를 통해 JDC 인터넷 면세점 운영 확대를 추진하고 있다. 현재 JDC 인터넷 면세점에서는 구매 예약만 할 수 있다. 예약한 뒤 매장을 직접 찾아 결제·수령하는 방식으로 운영되고 있다.그런데 관세청 고시는 JDC 인터넷 면세점에서 직접 결제해 인도장에서 물건을 수령하는 방식으로 확대하는 방안을 골자로 한다. 관광공사 인터넷 면세점과 같은 방식으로 확대된다는 얘기다. 이와 관련 감사원은 지난 2019년 6월 JDC 감사를 통해 수익 창출을 위해 인터넷 면세점 운영 확대 등을 지적한 바 있다. 당시 감사원은 “법령상 아무런 제약이 없는데도 인터넷면세점에 온라인 전용 브랜드를 도입하거나 결제기능을 추가하는 등으로 인터넷면세점을 개선하지 않음으로써 다양한 브랜드의 입점이 제한돼 매출 상승 기회와 신규 일자리 창출 기회를 놓쳤고, 인터넷 결제기능 부재로 인한 소비자 불편을 야기했다”며 JDC에 개선할 것을 통보·권고했다. 감사원 지적에 따라 JDC는 인터넷 면세점 운영 확대 방안을 추진했고, 2019년 12월 관세청이 관련 내용을 고시했다. 이와 관련해 JDC 관계자는 “그동안 관광공사 등 제주 지정면세점 업계 상황을 반영해 인터넷면세점 운영 확대에 소극적이었으나, 감사원이 인터넷면세점 확대 방안에 대해 공식 지적한 만큼 감사원 지적 사항을 이행할 수밖에 없다”고 토로했다. JDC 인터넷 면세점 확대에 대해 제주도와 제주관광공사는 강하게 반발하고 있다.  관광공사는 관세청에 2019년 4월과 2020년 2월 2차례에 걸쳐 JDC 인터넷 면세점 운영 확대에 대해 반대 의견을 내비쳤다.  제주도도 지난 4일 관세청에 공문을 보내 JDC 인터넷 면세점 운영 반대를 피력했다. 제주도가 공식 문서를 통해 관세청에 JDC 인터넷 면세점 관련 반대 의견을 내비친 것은 이번이 처음이다. 제주도는 공항만에 위치한 JDC 지정면세점의 매출액이 5000억원을 넘는 반면, 제주국제컨벤션센터에 있는 관광공사 지정면세점의 매출이 340억원 규모라는 점을 들었다. 오프라인 매장의 입지가 유리한 JDC가 인터넷 면세점까지 확대할 경우 강자독식 구조가 심화돼 관광공사 지정면세점은 매출액 감소로 존립 위기에 빠질 수 있다는 주장이다. 이어 도민과 함께하는 지방공기업(관광공사)의 존립과 위상을 유지하고, 파산과 도산의 절차로 이어지는 상황을 방지하기 위해 JDC 인터넷 면세점 도입에 대해 철회 등을 요청한다고 밝혔다.제주도 관계자는 “관광공사 지정면세점 상황이 어렵다. 관광공사와 함께 관세청을 찾아 JDC 인터넷 면세점 확대 반대 의견을 내비치는 등 공동 대응도 고려하고 있다”고 강조했다. 관광공사 관계자는 “JDC 지정면세점은 관광공사 지정면세점에 비해 입지가 유리하다. 단순히 인터넷 면세점 확대 방안만 추진할 것이 아니라 양 기관이 대승적 차원에서 협의가 필요하다”며 "JDC 인터넷 면세점이 확대될 경우 양 기관의 출혈경쟁이 불가피하다"고 말했다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도의 소리를 ‘카카오’에 담다ㆍㆍ초기관광벤처기업 ‘카카오패밀리’ 서울경제 서울경제TV SEN Plus 한국일보 리드온 회원가입 로그인 뉴스 뉴스홈 증권 금융 부동산 산업·IT 경제 전국 오피니언 탐사 핫이슈 키워드 톰슨로이터 프로그램 프로그램 핫클립 SEN이슈 SEN이슈 홈 비즈니스 글로벌 이슈&amp;피플 7번 국도 이야기 라이프 라이프 홈 S경제 S문화 S생활 카드PICK 카드PICK 커뮤니티 커뮤니티 개국포럼 금융자산포럼 채널가이드 편성표 안내 채널번호 안내 뉴미디어 시청안내 큐톤표 (생) 오늘장 내일장오후 02:00 - 오후 03:00 (생) 마감임박! 60분의 승부오후 03:00 - 오후 04:00 사이트맵 사이트맵 닫기 검색 뉴스 뉴스홈 증권 금융 부동산 산업·IT 경제 전국 오피니언 탐사 핫이슈 키워드 톰슨로이터 프로그램 프로그램 핫클립 SEN이슈 SEN이슈 홈 비즈니스 글로벌 이슈&amp;피플 7번 국도 이야기 라이프 라이프 홈 S경제 S문화 S생활 카드PICK 카드PICK 커뮤니티 커뮤니티 개국포럼 금융자산포럼 채널가이드 편성표 안내 채널번호 안내 뉴미디어 시청안내 큐톤표 IR클럽 ON AIR 통합 검색 검색 PLUS 바로가기 제주도의 소리를 ‘카카오’에 담다ㆍㆍ초기관광벤처기업 ‘카카오패밀리’ 비즈니스 입력 2021-02-08 09:37:10 유연욱 기자 0개 가 가 가 가 [사진= ㈜카카오패밀리] 최근 제주도 작은 마을, 구좌읍 세화리에 초기관광벤처기업 ‘㈜카카오패밀리’에 이목이 집중되고 있다. ㈜카카오패밀리는 중남미에서 카카오의 매력에 빠지게 된 김정아 대표가 보다 공정한 방법으로 더 많은 사람들에게 카카오의 가치를 알리기 위해 오픈한 샵이다. ㈜카카오패밀리를 만들게 된 배경에는 깊은 뜻이 있다. 정성을 다해 카카오를 수확하는 농민들이 불공정한 무역 구조 그리고 열악한 노동환경에서 일한 댓가를 제대로 받지 못하는 것을 본 김정아 대표는 공정한 유통망을 갖춰야겠다는 생각을 가장 우선적으로 했다. 중남미 현지에서 카카오생두를 직접 수입해 로스팅을 하고 제품을 만들어 판매함으로써 카카오의 가치를 알리는 것에 가장 큰 의미를 두고 ㈜카카오패밀리를 만들었다. 관광객들의 발길이 계속 이어지면서 현재는 현무암을 닮은 카카오닙스, 화산송이를 닮은 스위트 카카오닙스, 돌담을 닮은 토피닙스, 알작지를 담은 카카오볼, 뿔소라를 닮은 카카오캔디 등 제주의 이미지를 입은 카카오로 재탄생시키면서 초콜릿업계 관계자들이 찾아오기도 한다. 한 때 크라우드 펀딩을 이용해 소비자를 모으고, 소비자의 이름을 내건 카카오나무를 과테말라에 심는 프로젝트도 진행하기도 했다. 창의적인 아이디어를 가진 초기관광벤처기업 ‘카카오패밀리’ ㈜카카오패밀리는 최근 한국관광공사(대표 안영배)의 ‘2020년 관광벤처사업 공모전’에서 관광분야의 창의적인 아이디어를 가진 초기관광벤처기업으로 선정되어 사업화자금, 컨설팅, 교육 등 1년간 다양한 지원을 받았으며, 연말 최종성과평가에서 ‘우수기업’에 선정되어 우수상을 수상하기도 했다. 카카오와 제주 식재료를 주제로 한 소셜다이닝 및 원데이클래스 운영, 관광기념품 판매 등 제주의 특색을 살린 관광 체험 프로그램을 운영하고, ‘카밀라의 레시피’ 브랜드 론칭에 이어 풀무원, 이마트, 마켓컬리, 현대백화점 입점 등에 입점까지 성공, ‘초기관광벤처기업’으로 우수한 평가를 인정 받았다. 또한 힘든 시기에도 불구하고 지난해 신규고용 및 1.5억 원 시드투자 유치까지 성공하면서 안정적인 사업을 유지해 나가고 있다. ㈜카카오패밀리 소셜다이닝 열고 매달 카카오와 제주 특산물로 만든 30여 가지 음식 소개 ㈜카카오패밀리에서는 카카오와 제주 특산물로 만든 다양한 음식을 여러 사람이 함께 모여 식사하며 카카오에 대한 이야기를 나누는 소셜다이닝 프로그램을 운영하고 있다. 본 프로그램에서는 카카오와 제주 로컬 식재료로 만들어지는 다양한 디저트와 음식을 총 10가지 코스요리로 맛볼 수 있다. 제주 토속음식 빙떡에 메밀과 카카오를 반죽해서 만든 카카오빙떡, 제주의 유채꽃, 감귤 등 신선한 야채들이 어우러진 땡스풀 카카오샐러드, 제주 토속음식인 멜젓과 카카오치즈를 결합한 카카오멜젓소스, 카카오치즈로 만든 카카오피자 등 많은 음식들을 선보였다. 또한 여러 관광객들이 카카오로 만든 다양한 음식을 먹으며 카카오의 역사와 문화를 알아보는 시간을 가지기도 한다. ㈜카카오패밀리 김정아 대표는 “소셜다이닝의 완성도를 위해 전문 셰프의 도움을 받아 개발했다”며 “카카오로 만든 음식은 달기보단 씁쓸한 맛이 더 강하고 씁쓸한 맛이 원재료의 풍미를 더한다”고 말했다. ‘제주에서 만나는 카밀라의 초콜릿 식탁’은 2020년 11월 14일 최초 진행한 이래 제주 지역의 특색 있는 관광 체험 프로그램으로 거듭나고 있다. 부부가 운영하는 초기관광벤처기업 ㈜카카오패밀리, “카카오의 매력은 끝이 없어요” ㈜카카오패밀리는 부부가 함께 운영하고 있다. 부인 김정아 대표가 매장을 관리 운영하고 있으며 카카오를 이용한 요리법을 개발하고, 카카오를 콘텐츠화 시키는 게 주 업무다. 남편인 이인욱 이사는 카카오의 역사와 효능, 활용법을 주로 연구하며 현지에서 좋은 카카오를 들여오거나 현지 농장 관리 등을 담당하고 있다. 서울에서 태어난 김정아 대표는 1987년 시골 음악 목회를 계획한 부모를 따라 제주도로 이사를 했다. 대학에서 플루트를 전공하고 제주시립교향악단에 들어가 상임 단원으로 활동하던 중 남편 이인욱 이사를 만나 결혼하게 됐다. 남편 이인욱 이사는 국내 전자회사와 미국계 반도체 회사에 다니던 중에 부인인 김정아 대표와 함께 사업에 뜻을 품고 해외 이주를 결심했다. 그곳에서 한국 NGO 단체의 파송 선교사로, 공정무역 커피 담당자로 일하며 자연스럽게 카카오나무를 접하게 됐다. 이후 제주 구좌읍 세화리에 정착한 부부는 ‘커피와 카카오, 설탕을 테마로 한 직업 교육을 시작하게 됐고 카카오의 역사를 공부하면서부터 매력에 빠져들게 됐다. 김정아 대표는 “카카오는 고대 마야의 전통 식자재”라며 “카카오를 생각하자면 많은 사람들이 초콜릿을 떠올리고, 초콜릿 하면 벨기에나 스위스를 생각하지만, 유럽에는 카카오 열매가 자라지 않는다”고 말했다. 이어 “유럽에 카카오를 전해준 이는 마야인들”이라며 “마야에서 카카오는 전사들의 음식이어서 힘이 나게 하고 그게 유럽으로 전파되면서 왕실이나 귀족들의 디저트로 변모했다”고 말했다. 남편 이인욱 이사는 “카카오는 기둥에 꽃이 피고 열매가 맺힌다”며 “열매 안에는 과육 상태의 씨앗이 들어 있는데 과육이 굉장히 달고 커피도 원산지에 따라 맛과 향이 다르듯이 카카오도 나라별 품종별로 모양과 맛이 다르다”고 말했다. 카카오라는 매개체 통해 함께 웃고 함께 성장 하는 것이 꾸준한 소망 초기관광벤처기업 ㈜카카오패밀리와 같은 회사는 국내에 존재 하지 않는다. 현재 비슷한 기업은 한국에 몇 개 있으나 원료, 기술, 장비를 균형 있게 갖춘 국내 기업은 ㈜카카오패밀리가 유일하다. 또한 과테말라 카카오원물을 직수입하는 업체도 유일하다. ㈜카카오패밀리는 중남미의 개발도상국 아이들을 마음에 품으며 ‘농민도 생산자도 소비자도 우리 모두는 한 가족입니다’라는 슬로건으로 기업을 운영하고 있다. 김정아 대표는 최종 목표에 대해 “최종 목표라는 표현이 사실 맞지가 않는데 그 이유는 정량적인 목표로 표현되기 어렵기 때문”이라며 “최종 목표라기 보다 소망이라면 카카오라는 매개체를 통해 많은 이들이 함께 웃고 함께 성장하였음 좋겠다”고 말했다. /유연욱 기자 ywyoo@sedaily.com [ⓒ 서울경제TV(www.sentv.co.kr), 무단 전재 및 재배포 금지] #Tag #㈜카카오패밀리 #카카오 #제주도 #초기관광벤처기업 #김정아대표 #이인욱이사 #서울경제tv #서울경제티브이 가 가 가 가 관련뉴스 ﻿ 카카오모빌리티, 기업회원 배차 90% ... 국토부 신고 기업 전용 서비스 보장 명시 신원근 카카오페이 대표 "자사주 추가 매입…차익 발생 시 환원" 악재 겹친 카카오게임즈…하반기도 ‘깜깜’ 카카오모빌리티, 카카오내비 앱에서 ‘전기차 발레 충전 서비스’ 시범 운영 부산 버스 위치, 카카오 맵서 초 단위로 확인…초정밀 버스 위치 정보 제공 '다섯 돌' 카카오뱅크, 2,000만 고객 초읽기 서울경제TV 카카오톡 페이스북 네이버 원하시는 소셜 계정으로 로그인 한 후 의견을 작성해 주세요. 0/250 등록 주요뉴스 증권 산업·IT 부동산 금융 [이번주 SEN공모]골프존커머스 수요예측·핀텔 등 공모청약 外 이엔플러스, 2차전지 양산 핵심설비 구축 골프존커머스, 10월 코스닥 입성…"플랫폼 선도 기업 발돋움" 비보존, 경구용 약물중독 치료제 임상 1상 IRB 승인 진매트릭스, 인유두종바이러스 진단키트 신제품 식약처 제조허가 코웨이, 2022 한국산업의 고객만족도 조사 '침대·정수기' 2개 부문 1위 한국필립모리스, '한국산업 고객만족도' 궐련형 전자담배 부문 2년 연속 1위 "김치통 드려요"…삼성 비스포크 김치플러스, 프로모션 실시 마켓컬리 "이른 초가을 추위에 국물요리∙난방용품 판매량 증가" LF ‘아떼 바네사브루노’, LF몰서 가을 시즌 패션·뷰티 기획전 개최 최고급 골프빌리지 ‘알펜시아 빌라쥬 700’ 분양 예정 파주운정 경남아너스빌 디원&amp;리버’, 광폭 설계로 수요자 유혹 SGC이테크건설, 화재 예방 캠페인 실시 희소성 높아지는 수도권 새 아파트 분양 ‘눈길’ ‘포항 푸르지오 마린시티’, 청약 일정 돌입 [부고] 지영흔(하나은행 홍보팀장)씨 부친상 상상인계열 저축은행, '369 회전 정기예금' 출시…"자동 최신금리 반영" 웰컴저축銀, 정기예금 최고 연 4.45% 제공 카카오페이손해보험 출발…'함께하는 금융안심보험' 출시 NH농협생명 "상품개발 프로세스 디지털 전환 박차" 주간 TOP뉴스 1KOTRA, 우리 기업 美 소·부·장 시장 진출 지원 나선다 2포스코홀딩스-LG엔솔, 이차전지 사업 MOU 체결…전 분야 협력 강화 3현대모비스, 차량용 인포테인먼트 플랫폼 공동 개발…미래차 공략 강화 4한국투자證 “셀트리온, 램시마가 주도한다…매수해야” 5현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4,000만뷰 돌파 6미투온·미투젠 공동 개발 ‘포켓배틀스 NFT War’ DAU 10만 돌파 7답십리역 초역세권 ‘르텐 바이 트리마제’ 이달 공급 계획 8대우건설 ‘시화 MTV 푸르지오 디오션’ 이달 분양 9지더블유바이텍, 이사 선임 등 임시주주총회 성료 10유안타證, 해외주식 소수점 거래 서비스 오픈 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 더보기 핫클립 최신 인기 #업싸부, #시황브리핑! 주도주 섹터 관심! 방산관련주 │#단타, #아프리카TV, #매매전략 순간포착 매매 시그널 2022-10-11 (화) 방송 필라델피아반도체지수 저점 하회, 국내 대형IT주 대응은? │#매매전략, #종목추천 GO!수익 작전타임 2022-10-11 (화) 방송 오늘의 공시 분석! #카카오뱅크│공시분석, 매매전략 GO!수익 작전타임 2022-10-11 (화) 방송 한화 ‘서울세계불꽃축제’ 3년만에 개최 SEN 경제라이브 2022-10-11 (화) 방송 지수상승하면 우량주, 혼조세면 개별주, 하락하면 관망 평택촌놈의 정석투자 2019-03-26 (화) 방송 메타버스와 교육이 합쳐진다? 웅진씽크빅 지금이 매수 타이밍!│ 매매전력(웅진씽크빅,교육주,윤석열관련주) 마감임박! 60분의 승부 2021-11-12 (금) 방송 [내일의 BOOM] 탄소감축 = 원전? 달리는 말 '세보엠이씨' 탑승 전략은? │ 매매전략 (세보엠이씨,원전주,종가베팅) 오늘장 내일장 2021-11-12 (금) 방송 2월 25일이 반등 고점은 확실, 이제는 하락 속도의 문제 평택촌놈의 정석투자 2019-03-26 (화) 방송 이 시각 이후 방송 15:00 마감임박! 60분의 승부 생방송 성예경 PD 최슬기 MC 16:00 주식 구조대 생방송 박솔아 PD 김혜연 MC 17:00 건강 정보통 &lt;재&gt; 재방송 SEN PD SEN MC 18:00 SEN 경제라이브 생방송 박수현 PD 서정덕 MC 18:30 돈워리 스탁 생방송 성예경 PD 이주현 MC 더보기 오늘의 날씨 2022-10-12(수) 09:00 구름조금 마포구 상암동11.0℃ 강수확률 0% 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 신규 프로그램(해외선물의 신 시즌3) 런칭!! 신규 프로그램(윤태진의 허니투데이) 런칭!! 신규 프로그램(민박사의 주식 훈민정음) 런칭!! 회사소개 개인보호정책 광고 및 제휴 안내 기사 구매 안내 고객센터 IR클럽 서울특별시 마포구 월드컵북로 400 서울산업진흥원 3, 4, 8, 9층 SEN 서울경제TV 서울특별시 종로구 율곡로 6, 트윈트리빌딩 비동 16층(중학동) 제호 : SEN서울경제TV 등록번호 : 서울, 아52887 등록일 : 2020년 02월 19일 발행인 및 편집인 : 이상석 고객센터 : 1577-7451 사업자등록번호 : 107-81-84028 통신판매업신고번호 : 제 2018-서울종로-0855호 대표자 성명 : 이상석 Copyright 2012 ⓒ ㈜서울경제티브이 Corp. All Rights Reserved. 서울경제TV SEN ON AIR 편성표 VOD 소개 프로그램 정보 VOD 더보기 온에어 팝업창 닫기 온에어 팝업창 넓게 펼치기 접기 서울경제TV 카카오톡 페이스북 네이버 원하시는 소셜 계정으로 로그인 한 후 의견을 작성해 주세요. 0/250 등록 주요뉴스 증권 산업·IT 부동산 금융 [이번주 SEN공모]골프존커머스 수요예측·핀텔 등 공모청약 外 이엔플러스, 2차전지 양산 핵심설비 구축 골프존커머스, 10월 코스닥 입성…"플랫폼 선도 기업 발돋움" 비보존, 경구용 약물중독 치료제 임상 1상 IRB 승인 진매트릭스, 인유두종바이러스 진단키트 신제품 식약처 제조허가 코웨이, 2022 한국산업의 고객만족도 조사 '침대·정수기' 2개 부문 1위 한국필립모리스, '한국산업 고객만족도' 궐련형 전자담배 부문 2년 연속 1위 "김치통 드려요"…삼성 비스포크 김치플러스, 프로모션 실시 마켓컬리 "이른 초가을 추위에 국물요리∙난방용품 판매량 증가" LF ‘아떼 바네사브루노’, LF몰서 가을 시즌 패션·뷰티 기획전 개최 최고급 골프빌리지 ‘알펜시아 빌라쥬 700’ 분양 예정 파주운정 경남아너스빌 디원&amp;리버’, 광폭 설계로 수요자 유혹 SGC이테크건설, 화재 예방 캠페인 실시 희소성 높아지는 수도권 새 아파트 분양 ‘눈길’ ‘포항 푸르지오 마린시티’, 청약 일정 돌입 [부고] 지영흔(하나은행 홍보팀장)씨 부친상 상상인계열 저축은행, '369 회전 정기예금' 출시…"자동 최신금리 반영" 웰컴저축銀, 정기예금 최고 연 4.45% 제공 카카오페이손해보험 출발…'함께하는 금융안심보험' 출시 NH농협생명 "상품개발 프로세스 디지털 전환 박차" 주간 TOP뉴스 1KOTRA, 우리 기업 美 소·부·장 시장 진출 지원 나선다 2포스코홀딩스-LG엔솔, 이차전지 사업 MOU 체결…전 분야 협력 강화 3현대모비스, 차량용 인포테인먼트 플랫폼 공동 개발…미래차 공략 강화 4한국투자證 “셀트리온, 램시마가 주도한다…매수해야” 5현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4,000만뷰 돌파 6미투온·미투젠 공동 개발 ‘포켓배틀스 NFT War’ DAU 10만 돌파 7답십리역 초역세권 ‘르텐 바이 트리마제’ 이달 공급 계획 8대우건설 ‘시화 MTV 푸르지오 디오션’ 이달 분양 9지더블유바이텍, 이사 선임 등 임시주주총회 성료 10유안타證, 해외주식 소수점 거래 서비스 오픈 공지사항 마감임박! 60분의 승부 출연 전문가 변경 안내 프로그램(베스트 트레이딩 맨) 편성 변경 안내 더보기 핫클립 최신 인기 #업싸부, #시황브리핑! 주도주 섹터 관심! 방산관련주 │#단타, #아프리카TV, #매매전략 순간포착 매매 시그널 2022-10-11 (화) 방송 필라델피아반도체지수 저점 하회, 국내 대형IT주 대응은? │#매매전략, #종목추천 GO!수익 작전타임 2022-10-11 (화) 방송 오늘의 공시 분석! #카카오뱅크│공시분석, 매매전략 GO!수익 작전타임 2022-10-11 (화) 방송 한화 ‘서울세계불꽃축제’ 3년만에 개최 SEN 경제라이브 2022-10-11 (화) 방송 지수상승하면 우량주, 혼조세면 개별주, 하락하면 관망 평택촌놈의 정석투자 2019-03-26 (화) 방송 메타버스와 교육이 합쳐진다? 웅진씽크빅 지금이 매수 타이밍!│ 매매전력(웅진씽크빅,교육주,윤석열관련주) 마감임박! 60분의 승부 2021-11-12 (금) 방송 [내일의 BOOM] 탄소감축 = 원전? 달리는 말 '세보엠이씨' 탑승 전략은? │ 매매전략 (세보엠이씨,원전주,종가베팅) 오늘장 내일장 2021-11-12 (금) 방송 2월 25일이 반등 고점은 확실, 이제는 하락 속도의 문제 평택촌놈의 정석투자 2019-03-26 (화) 방송 이 시각 이후 방송 15:00 마감임박! 60분의 승부 생방송 성예경 PD 최슬기 MC 16:00 주식 구조대 생방송 박솔아 PD 김혜연 MC 17:00 건강 정보통 &lt;재&gt; 재방송 SEN PD SEN MC 18:00 SEN 경제라이브 생방송 박수현 PD 서정덕 MC 18:30 돈워리 스탁 생방송 성예경 PD 이주현 MC 더보기 오늘의 날씨 2022-10-12(수) 09:00 구름조금 마포구 상암동11.0℃ 강수확률 0% 주가와 시세 전일 종가 기준 톰슨로이터(Refinitiv) 해외 주가지수 국제 외환시세 국제 원자재시세 국제 금리시세 종목 가격 전일대비 DOW 25,798.42 352.40 S&amp;P 500 2,809.91 102.00 Nasdaq 7,655.48 99.00 Nikkei 22,841.12 33.00 HIS 25,462.33 33.12 종목 가격 전일대비 USD/KRW 1,115.00 5.40 USD/JPY 112.25 3.40 EUR/USD 1.1532 0.0042 GBP/USD 1.3110 0.0034 USD/CNY 6.9234 0.0119 종목 가격 전일대비 금 (Gold) 1,227.3 3.33 은 (Silver) 14.33 1.22 동 (Copper) 2.7735 0.003 원유 (WTI) 71.25 1.23 원유 (Brent) 80.94 1.23 원유 (Dubai) 70.33 1.23 종목 가격 전일대비 3개월 USD Libor 2.44456 3개월 EURIBOR 0.318 3개월 JPY Libor 0.08350 3개월 GBP Libor 0.08350</t>
+  </si>
+  <si>
     <t>제주도, 코로나19 음성 확인되면 제주 공영 관광지 무료입장 - 전국 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 전국 &gt; 제주 제주도, 코로나19 음성 확인되면 제주 공영 관광지 무료입장 입력: 2021.02.05 12:11 / 수정: 2021.02.05 12:11 올해 설 연휴 코로나19 진단검사를 받고 제주로 오는 여행객들은 성산일출봉, 만장굴 등 도내 공영관광지를 무료로 입장할 수 있다. / 제주도 제공오는 6일부터 성산일출봉, 만장굴 등 주요 관광지 29곳...음성판정 확인서 제출[더팩트ㅣ제주=문지수 기자] 올해 설 연휴 코로나19 진단검사를 받고 제주로 오는 여행객들은 성산일출봉, 만장굴 등 도내 공영관광지를 무료로 입장할 수 있다.제주도는 오는 6일부터 입도 전 검사를 통해 음성판정 확인서를 제출하는 귀성객과 관광객을 대상으로 주요 공영관광지 29곳의 무료입장을 추진한다.원희룡 지사는 4일 설 연휴 특별방역대책을 논의하며 "부득이하게 제주 방문시에는 입도 전 3일 이내에 코로나19 진단 검사를 받으신 후 제주에 오실 것을 강력하게 권고하며, 검사를 받고 들어온 분들은 인센티브나 면책 등을 통해 최대한 검사를 확대할 수 있는 방법을 강구해야 한다"고 언급한 바 있다.오는 11일부터 14일까지 4일간 제주를 찾을 것으로 예상되는 관광객은 약 14만3000여 명이다.제주도관광협회에 따르면 설 연휴를 하루 앞둔 10일에 가장 많은 3만6000명이 제주를 방문할 것으로 조사됐고 11일 3만5000명, 12일 2만6000명, 13일 2만명, 14일 2만6000명 등으로 전망하고 있다.지난해 설 명절 기간(1월 23~27일) 방문객 21만1848명 대비 약 32.5% 감소했지만 코로나19 감염확산을 예방하고 안전 제주를 사수하기 위해서 집중 방역 관리를 추진한다.특히 최근 제주지역 코로나19 신규 확진자 11명 중 81.8%에 해당하는 9명이 해외 입국자이거나 수도권 확진자 접촉자, 수도권 방문자 등으로 확인돼 지역 외부 요인에 의한 불안 요인이 가중되고 있기 때문에 보다 안전한 여행을 위해 입도 전 3일이내 코로나19 진단 검사 시행을 강력 권고하고 있다.또한 주요 관광지들을 대상으로 방역실태를 점검하고 입도 관문인 공·항만 등에서 제주안심코드 이용 캠페인을 집중 홍보할 계획이다.설 연휴 관광객과 도민이 함께 만들어 가는 안전관광 제주 조성을 위해 공·항만 도착에서 출도까지, 제주안심코드를 이용한 동선 기록과 사회적 거리두기 참여에 주력하고 이를 위해 도, 행정시, 관광공사, 관광협회 등과 함께 합동점검반을 편성, 총 211여명의 인원을 투입해 설연휴 관광종합상황실을 운영한다.더불어 오는 6일부터 14일까지 8일간 관광사업체, 8대 핵심관광클러스터 등에 대해 제주안심코드를 비롯한 전자 출입명부 활용 및 방역수칙 이행 여부를 집중점검 할 계획이다.현장 점검내용은 ▲방역 관리자 지정 여부 및 종사자 위생 관리 ▲주기적 방역 및 이행수칙 준수 ▲제주안심카드 홍보 및 이용 안내 ▲방문객 마스크 착용 등 생활 속 거리두기 이행 여부 ▲5인 이상 집합금지 ▲⅔ 숙박시설 예약 이행여부 등을 확인하고 공·항만을 통해 제주로 오는 방문객 전원을 대상으로 마스크 착용 등 체류기간 내 방역수칙 준수도 적극 홍보한다.제주공항 1층 도착장 입구(2곳)와 제주항 여객터미널, 8대 핵심관광클러스터에서 입도객 대상 마스크 착용 안내와 제주안심카드 이용 캠페인과 설 연휴 직전 주말인 2월 6일부터는 관광사업체 1506곳에 대해 손소독제와 방역물품을 지원함과 동시에 방역태세 사전 점검에도 힘을 쏟는다.명절 연휴 기간에도 자치경찰단과 합동으로 도내 숙박시설에 대해 방역수칙 준수, 집합행사 개최 여부, 숙박 제한 등 위반 여부 등에 대한 합동 단속을 실시하고 위반 시 고발 및 행정조치 시행 사항을 안내할 예정이다.또한 연휴 직후 14일부터 관광객 다수 접촉 직업군을 대상으로 실시되는 고위험군 종사자에 대한 무료 검사 안내도 병행 중이다.김재웅 도 관광국장은 "설 연휴기간동안 도민과 관광객이 함께하는 안전한 제주 관광이 이뤄질 수 있도록 만전을 기하겠다"면서 "코로나19 감염 확산을 막기 위해 한분 한분의 협조가 절실한 상황인 만큼 제주안심코드 사용과 핵심 방역수칙 이행에 적극 동참해 줄 것"을 당부했다.한편 무료입장 가능한 주요 관광지에는 천지연폭포, 제주도립미술관, 민속자연사박물관, 만장굴, 비자림, 성산일출봉, 제주돌문화공원, 제주별빛누리공원, 치유의 숲, 주상절리대 등이 있다.hyejun@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
   </si>
   <si>
-    <t>코로나? 설 연휴 전국 관광지 숙박 예약 만실...제주도 14만 명 방문 예상 - 한국면세뉴스 × 전체기사 DF산업 전체 국내면세점 해외면세점 산업동향 금융 DF정책 브랜드·유통 전체 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 전체 인터뷰·칼럼 What’s NEW 글로벌 라이프 여행·레저 전체 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 보도자료 UPDATED. 2022-10-04 11:10 (화) 로그인 회원가입 모바일웹 전체기사 DF산업 국내면세점 해외면세점 산업동향 DF정책 브랜드·유통 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 인터뷰·칼럼 What’s NEW 글로벌 ISSUE 라이프 여행·레저 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 핫뉴스 핫뉴스 생활 엔터테인먼트 보도자료 기사검색 검색 이전 다음 코로나? 설 연휴 전국 관광지 숙박 예약 만실...제주도 14만 명 방문 예상 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME DF정책 코로나? 설 연휴 전국 관광지 숙박 예약 만실...제주도 14만 명 방문 예상 민병권 승인 2021.02.05 17:23 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 정세균 국무총리 "치료제·백신 기대감에 긴장감 이완돼선 곤란" "설 연휴 이동·여행 최대한 자제해달라” 정세균 국무총리는 5일 “치료제와 백신 접종에 대한 기대감으로 인해 코로나19를 경계하는 우리의 긴장감이 이완돼서는 곤란하다”며 방역수칙 준수를 거듭 당부했다. 정 총리는 이날 서울 세종로 정부서울청사에서 열린 코로나19 중앙재난안전대책본부(중대본) 회의를 주재한 자리에서 “미국, 영국 등 주요 국가에서 백신 접종 초기에 오히려 확진자가 급격히 증가하는 경향을 보였다는 사실을 직시할 필요가 있다”며 이 같이 말했다. 정세균 국무총리가 5일 서울 세종로 정부서울청사에서 중대본 회의를 주재하고 있다. 정 총리는 “집단면역이 형성되기 전까지는 마스크 착용과 사회적 거리두기와 같은 방역의 근간이 흔들려서는 안된다”며 “이제까지 그랬던 것처럼 국민 여러분의 적극적인 참여와 협조를 부탁드린다”고 호소했다. 코로나19 상황에 대해서는 “오늘까지 누적확진자가 8만명을 넘어섰고 대규모 집단감염은 줄어든 반면 일상생활 속 전파 사례가 늘어 답답한 정체국면이 이어지고 있다”고 설명했다. 그러면서 “이번 설 연휴에 고향방문 의향을 묻는 질문에 4명 중 3명은 방문계획이 없다고 답했다는 조사결과가 나왔다”며 “공동체의 안전을 위한 인내와 협조에 감사하다”고 언급했다. 정 총리는 “이러한 분위기 속에서도 주요 관광지의 숙박시설은 이미 예약이 다 찼을 정도로 적지 않은 분들이 고향 방문 대신 여행을 계획하고 있는 것으로 보인다”며 “제주도만 해도 이번 설 연휴에 관광객을 포함해서 약 14만명이 찾을 것으로 예상된다”고 지적했다. 이어 “아직 3차 유행이 끝나지 않았다”며 “이번 설 연휴에 이동과 여행을 최대한 자제할 것을 간곡히 요청드린다”고 거듭 당부했다. 아울러 “가족 모두의 안전을 위해 ‘5인이상 모임금지’ 수칙을 꼭 지키고 가급적 사람들이 많이 모이는 곳은 피해달라”고 요청했다. 사진=국무조정실 민병권 기자 kdf@kdfnews.com 저작권자 © 한국면세뉴스 무단전재 및 재배포 금지 민병권 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 관련기사 (必검진)포항시청, 영남그린힐스골프연습장-충무대체력단련장 방문자 검사 바람...거리두기 2주간 유지-명절에도 5인 이상 모이면 과태료 10만원[코로나19, 1일] (속보)시흥시 1명, 동대문구 14명, 진천군 1명, 청주시 1명 확진...거리두기 2주간 유지-명절에도 5인 이상 모이면 과태료 10만원[코로나19, 1일] (속보, 必검진)천안시 1명, 부천시 1명, 김포시 1명 확진...진안군 진안미용실 방문자 검사 바람[코로나19, 1일] (속보)구리시 1명, 남양주시 2명, 진안군 2명 확진...거리두기 유지-설명정 5인 이상 10만원 과태료[코로나19, 1일] 정세균 "뭉치면 죽고 흩어지면 산다…올해 설날은 마음으로 함께해야" (속보)인천연수구 2명, 광주광역시 5명, 부산영도구 1명, 부산동래구 1명, 의정부시 2명 확진...정세균, "거리두기 체계 개편하라"[코로나19, 4일] (속보)용산구 9명, 강남구 3명, 영등포구 1명, 화성시 4명 확진...정세균, "거리두기 체계 개편하라"[코로나19, 4일] "이 시국에 제주여행 독려를?"...티몬 '제주여행 프로젝트' 빈축 [속보] 구로구 3명- 중구청 2명- 은평구 5명 확진자 발생 [코로나19, 5일] [必검진] 제주도 아라동 태진해장국 - 인예어린이집 재원아동 확진...임시폐쇄조치 [코로나19, 5일] [상보] 중랑구청 1056~1062번 확진자 동선공개...중화초등학교·롯데리아사가정역점·솔로몬지역아동센터·동원초등학교돌봄교실·첼시주점·골목소머리국밥 등등 [코로나19, 5일] [글로벌 포커스] 美 국립 알레르기·전염병 연구소장, 파우치 "최근 확진자 감소는 백신 접종 효과 아냐" 정세균 "수도권 자영업자 실망 알고 있어, 협조 당부" 정세균 "백신 접종 시작되면 이전 일상으로 되돌아갈 수 있을 것" 더보기+ 주요기사 여수 앞바다 검은 무지갯빛 기름띠 오염…"오염원 추적 중" 현대모비스, ‘차량용 5G통신 모듈' 개발..."미래 모빌리티 정조준" 몽골은 편의점 '기회의 땅'...GS·CU, 360여점 운영···'K-편의점의 힘' 발휘 "高물가에는 大용량 시대"...대용량 상품 판매, 전년比 2배 증가 마켓컬리 근로법 위반신고 가장 많아...野 "김슬아, 국감증인 不채택 의아" "누구를 위한 마트인가?" 하나로마트, 수입농산물 판매 '기준 위반'...제재 0건은 '제식구 봐주기' 당신만 안 본 뉴스 (속보) 日 기시다 총리 "10월 11일부터 외국인 무비자·자유여행 허용" 강남 S대학병원 천장서 대소변 쏟아져 환자가족 덥쳐..."병원측 사과 없어" [속보] 모스크바 주재 美 대사관, 러시아 거주-여행 미국인 철수령...이중 국적 미국인 동원령 징집 경고 [KDF World] [속보] 필리핀, 슈퍼 태풍 '노루' 최고 비상단계 대응 발령...최대 풍속 250km/h→허리케인 5등급과 맞먹어 [KDF Disaster] [속보] 美 허리케인 '이안(Ian)' 4등급 폭풍 격상...플로리다 비상사태 선포 '강제 주민 대피령' [KDF Disaster] (속보) 日 기시다 총리 "10월 11일부터 외국인 무비자·자유여행 허용" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신뉴스 롯데면세점, LDF BUY에 일본직구관 오픈 조셉앤스테이시, 2023 SS 파리 패션위크서 올해의 데뷔땅뜨 등극 위크엔드 막스마라, 2022 FW ‘하비토(Habito)’ 컬렉션 공개 [KDF MaxMara] 네이버, 미국판 당근마켓 '포쉬마크' 2조3000억원에 인수 이민정도 고민하던 기미·피부노화 이제는 벗어날 때 [KDF mastic] KDFN 인터뷰 OECD 최악의 노인 빈곤율과 자살률 1위 [안창현의 돋보기] 오는 10월 2일 노인의 날을 앞두고 우리나라의 노인 빈곤율이 압도적인 세계 1위로 나타나 초고령사회(65세 노인 인구가 전체의 20% 이상)를 목전에 둔 상황에서 국가적인 대책 ... 금융위기 공포, 한국의 원화 가장 취약[안창현의 돋보기] 28일 원/달러 환율이 1439.9원으로 폭등하며 1440원 돌파를 목전에 뒀고 코스피는 2200선이 무너지며 2.45% 하락한 2169.29로 2년 2개월 만에 최저치를 기록했고... 자살을 부르는 사회, OECD 자살률 부동의 1위 [안창현의 돋보기] 통계청이 27일 발표한 ‘2021년 사망원인통계’에 따르면 우리나라는 2021년에도 OECD(경제협력개발기구) 국가 가운데 자살률 부동의 1위를 기록했다.자살로 소중한 생을 마감한... What's NEW 오마이걸 미미, 막스마라 입고 오마이~, 마라~ [KDF @star1] 오마이걸 미미가 위크엔드 막스마라(Weekend MaxMara)와 함께한 앳스타일 화보를 공개했다. 미미는 위크엔드 막스마라 2022 FW 파카, 점퍼, 패딩 등 다양한 아우터를 ... 심달기, 영화를 말아? 인기를 말아?  JIFF 말고 BIFF까지 [KDF Rolling] 영화 '말아'의 주인공 ‘심달기’가 부산국제영화제를 앞두고 '마리끌레르' BIFF 에디션을 통해 진솔한 생각을 담은 인터뷰와 화보를 공개했다. 화보 속 심달기는 배우로서 지닌 다채... 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 한국면세뉴스 KoreaDutyFreeNews 등록번호 서울 아 03561 등록일 2015-02-02 발행인 박홍규 편집인 박홍규 청소년보호책임자 박주범 서울특별시 서초구 서초대로55길 3 애니빌딩 6층 (서초동 1696-13) 02-3478-1767 mail to kdf@kdfnews.com / 4067park@naver.com 한국면세뉴스 · 면세뉴스아시아 © 2022 kdfnews.com All rights reserved. 한국면세뉴스의 모든 콘텐츠는 저작권법의 보호를 받으며, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
-  </si>
-  <si>
-    <t>컬러슈가, 제주도 방문 관광객 위한 설선물 선보여 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 11:15 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 컬러슈가, 제주도 방문 관광객 위한 설선물 선보여 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 컬러슈가, 제주도 방문 관광객 위한 설선물 선보여 기자명 이다견 입력 2021.02.04 17:40 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 [공감신문] 이다견 기자 = 청정 제주의 특산물을 기반으로 제주도의 특색있는 제품을 기획하는 기업인 컬러슈가(대표 양병철)가 신축년 설 연휴를 맞아 제주도를 방문하는 관광객을 위한 설선물을 선보였다. 글로벌 초콜렛 브랜드인 허쉬의 국내 라이선스를 보유한 미성패밀리와 콜라보레이션하여 탄생시킨 제품인 '허쉬감귤샌드위치쿠키'는 허쉬와 제주도의 첫번째 만남으로 의미가 남다르다. 진한 초콜렛과 상큼한 제주감귤 필링이 만나 색다른 맛을 선사하며, 100g(4봉입)짜리의 경우 3개 번들로 판매하고 있다. '제주 오메기떡파이'는 제주 명물인 오메기떡을 부담없이 간편하게 즐길 수 있도록 파이로 만들어낸 제품으로 떡을 즐기지 않는 세대까지 즐길 수 있도록 만들었다. '제주 타르트 일러스트 에디션'은 제주 특산품인 감귤, 한라봉, 우도땅콩, 녹차를 베이스로한 타르트 제품으로 제주도를 상징하는 오브제를 일러스트로 그려낸 패키지가 인상적이다. 패키지의 일러스트는 제주 감성을 담아내는 이현미 일러스트레이터의 작품으로 특별한 포장이 없어도 패키지 자체가 포장이 될 수 있다. 또한 제주감귤 농축액을 베이스로 한 ‘마이제주감귤젤리 귤이퐁당’이 있다. 한 상자에 8개의 파우치가 들어 있어 아이들을 위한 선물로 제격이며 젤리 안쪽에서 진하게 터지는 감귤농축액이 첨가되었다. 컬러슈가 양병철 대표는 “설 연휴를 맞아 평소보다 많은 관광객들이 제주도를 찾을 것으로 예상하고 있다며 안전한 거리두기 여행을 당부하며 컬러슈가가 준비한 다양한 기념품들과 함께하는 풍성한 설명절이 되기를 바란다”고 전했다. 저작권자 © 공감신문 무단전재 및 재배포 금지 이다견 news1@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 남궁역 시의원, ‘2022 서울정원박람회’ 개막식 참석 bhc치킨 포항기계점, 치킨 기부로 선한 영향력 전파 윤 대통령 "외교 순방 성과 많았다...경제위기, 24시간 비상 체제" "부적합 방송통신기자재 회수율 5.4%에 불과" LG생활건강, ‘벨먼X네고왕 바디 세트’ 옥션 단독 기획전 열어 모두가 행복한 세상, 김천! 어린이큰잔치 개최 당신만 안 본 뉴스 50대 여배우 ‘조은숙’ 근황 공개...검색량은? "무안하고 당황스러워" 돈스파이크 와이프 성하윤 고충 토로 한그루 이혼에 남편 누구?...과거 애칭·인스타그램 재조명 롤 서버 점검, 언제까지 하나 "차 보닛에 손 대봐" 성하윤 소름 돋게 한 돈스파이크 의심 뭐였길래 50대 여배우 조은숙 "신랑, 어린 걸 불편..." 연하 남편 애칭 뭐길래 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 50대 여배우 ‘조은숙’ 근황 공개...검색량은? 오늘공감 남궁역 시의원, ‘2022 서울정원박람회’ 개막식 참석 이병윤 서울시의원, ‘2022 자랑스러운 인물대상’ 수상 청소년모바일상담센터, '2022 학생 자살예방 우수 콘텐츠 공모전' 실시 비건이펙트, 페이백 이벤트 진행 10월 4일 오늘의 띠별 운세 '쥐띠·소띠·뱀띠·용띠·개띠 주목' 인기기사 1 [오늘의 금값시세] 10월 3일 24·18k 한돈 금시세는? 2 [2022년 10월 공모주 청약 일정] 에스비비테크 수요예측·확정 공모가·상장일은? 3 [2022년 10월 공모주 청약 일정] 샤페론 수요예측·확정 공모가·상장일은? 4 [검은 손이 노린다] 피싱 범죄, 아는 만큼 피할 수 있다 (완) 5 [특징주] 오토앤 주가 급등세... 이유는? 6 [주유소 가격비교] 10월 3일 기름값 싼곳 어디? 최저가 휘발유 1517원·경유 1679원 7 김민기 의원, ``LH 임대주택 부적격 입주자 5년간 4만명 육박`` 8 최영희 의원 “건강보험공단 고액자산가·소득자 구상금 미납 심각” 9 한 총리 "연대·상생으로 재도약…홍익인간 정신으로 새시대 열어가야 10 배준영 의원 "5년간 국세청 과오납환급금 30조5천억 육박" 최신기사 남궁역 시의원, ‘2022 서울정원박람회’ 개막식 참석 bhc치킨 포항기계점, 치킨 기부로 선한 영향력 전파 윤 대통령 "외교 순방 성과 많았다...경제위기, 24시간 비상 체제" "부적합 방송통신기자재 회수율 5.4%에 불과" LG생활건강, ‘벨먼X네고왕 바디 세트’ 옥션 단독 기획전 열어 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 스마트관광·청정바이오·그린에너지 198억 투입 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 11:16 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 스마트관광·청정바이오·그린에너지 198억 투입 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도, 스마트관광·청정바이오·그린에너지 198억 투입 기자명 진순현 기자 입력 2021.02.04 12:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 코로나19 대비 지역주력산업육성계획 공고...오는 22일부터 온라인 접수 제주도가 코로나19로 인한 팬데믹 위기 상황을 극복하고, 한국판 뉴딜과 개편된 지역주력산업의 성공적인 추진을 위해 드라이브를 걸 전망이다. 제주특별자치도는 제주테크노파크, 제주지역사업평가단과 함께 지역주력산업육성사업 지원계획을 공고한다고 4일 밝혔다. 이번 지역주력산업은 △지역뉴딜산업 육성 △지역 전략수요 △뉴딜과 연계된 중앙정부(중소벤처기업부)의 방침에 따라 개편한다. 우선 지역 특화도가 높은 청정헬스푸드산업에서 제주자원을 활용해 적용 가능한 ‘청정바이오산업’으로 개편한다. 또한 지역뉴딜과 연계한 신산업 육성을 위해 지능형 관광콘텐츠산업을 ‘스마트관광산업’으로 변경한다. 이와 함께 제주 전기차충전서비스 규제자유특구 및 그린뉴딜과의 연계강화를 위해 스마트그리드산업을 ‘그린에너지산업’으로 확대 시행한다. 지역산업 육성을 위한 예산은 지난해 성과 인센티브 확보 등으로 약 23억원이 증액된 198억5000만원(국비 141억6800만, 지방비 56억8200만)이며, R&amp;D 지원에 112억9600만원, 비R&amp;D지원에 85억5400만원이 투입될 예정이다. 올해 지역특화산업은 △팬데믹 시대에 대응하기 위한 면역강화식품, 간편식 가공식품 등을 위한 청정바이오산업 △관광·문화상품의 비대면화를 위한 실감형콘텐츠, 빅데이터 활용서비스 등을 위한 스마트관광산업 △카본프리 아일랜드 2020 비전을 달성하기 위한 제주형 뉴딜과 연계하는 그린에너지산업 분야를 집중 육성할 계획이다. 제주도는 지난달 29일부터 공모를 시작, 오는 22일부터 다음달 4일까지 온라인을 통해 접수받을 예정이다. 윤형석 도 미래전략국장은 “현재까지의 지원시스템과는 달리 코로나19로 인해 힘들어하는 지역기업들에게 꼭 필요한 사업 프로그램을 지원해 새로운 도약의 발판을 마련하고 혁신 경쟁력 확보에도 도움을 될 수 있도록 최선을 다하겠다”고 말했다. 진순현 기자 jinjin3808@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 오늘의 주요뉴스 [관광] 제주관광 회복 가속도…코로나19 이전 수준 회복 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+    <t>코로나? 설 연휴 전국 관광지 숙박 예약 만실...제주도 14만 명 방문 예상 - 한국면세뉴스 × 전체기사 DF산업 전체 국내면세점 해외면세점 산업동향 금융 DF정책 브랜드·유통 전체 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 전체 인터뷰·칼럼 What’s NEW 글로벌 라이프 여행·레저 전체 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 보도자료 UPDATED. 2022-10-11 14:55 (화) 로그인 회원가입 모바일웹 전체기사 DF산업 국내면세점 해외면세점 산업동향 DF정책 브랜드·유통 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 인터뷰·칼럼 What’s NEW 글로벌 ISSUE 라이프 여행·레저 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 핫뉴스 핫뉴스 생활 엔터테인먼트 보도자료 기사검색 검색 이전 다음 코로나? 설 연휴 전국 관광지 숙박 예약 만실...제주도 14만 명 방문 예상 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME DF정책 코로나? 설 연휴 전국 관광지 숙박 예약 만실...제주도 14만 명 방문 예상 민병권 승인 2021.02.05 17:23 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 정세균 국무총리 "치료제·백신 기대감에 긴장감 이완돼선 곤란" "설 연휴 이동·여행 최대한 자제해달라” 정세균 국무총리는 5일 “치료제와 백신 접종에 대한 기대감으로 인해 코로나19를 경계하는 우리의 긴장감이 이완돼서는 곤란하다”며 방역수칙 준수를 거듭 당부했다. 정 총리는 이날 서울 세종로 정부서울청사에서 열린 코로나19 중앙재난안전대책본부(중대본) 회의를 주재한 자리에서 “미국, 영국 등 주요 국가에서 백신 접종 초기에 오히려 확진자가 급격히 증가하는 경향을 보였다는 사실을 직시할 필요가 있다”며 이 같이 말했다. 정세균 국무총리가 5일 서울 세종로 정부서울청사에서 중대본 회의를 주재하고 있다. 정 총리는 “집단면역이 형성되기 전까지는 마스크 착용과 사회적 거리두기와 같은 방역의 근간이 흔들려서는 안된다”며 “이제까지 그랬던 것처럼 국민 여러분의 적극적인 참여와 협조를 부탁드린다”고 호소했다. 코로나19 상황에 대해서는 “오늘까지 누적확진자가 8만명을 넘어섰고 대규모 집단감염은 줄어든 반면 일상생활 속 전파 사례가 늘어 답답한 정체국면이 이어지고 있다”고 설명했다. 그러면서 “이번 설 연휴에 고향방문 의향을 묻는 질문에 4명 중 3명은 방문계획이 없다고 답했다는 조사결과가 나왔다”며 “공동체의 안전을 위한 인내와 협조에 감사하다”고 언급했다. 정 총리는 “이러한 분위기 속에서도 주요 관광지의 숙박시설은 이미 예약이 다 찼을 정도로 적지 않은 분들이 고향 방문 대신 여행을 계획하고 있는 것으로 보인다”며 “제주도만 해도 이번 설 연휴에 관광객을 포함해서 약 14만명이 찾을 것으로 예상된다”고 지적했다. 이어 “아직 3차 유행이 끝나지 않았다”며 “이번 설 연휴에 이동과 여행을 최대한 자제할 것을 간곡히 요청드린다”고 거듭 당부했다. 아울러 “가족 모두의 안전을 위해 ‘5인이상 모임금지’ 수칙을 꼭 지키고 가급적 사람들이 많이 모이는 곳은 피해달라”고 요청했다. 사진=국무조정실 민병권 기자 kdf@kdfnews.com 저작권자 © 한국면세뉴스 무단전재 및 재배포 금지 민병권 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 관련기사 (必검진)포항시청, 영남그린힐스골프연습장-충무대체력단련장 방문자 검사 바람...거리두기 2주간 유지-명절에도 5인 이상 모이면 과태료 10만원[코로나19, 1일] (속보)시흥시 1명, 동대문구 14명, 진천군 1명, 청주시 1명 확진...거리두기 2주간 유지-명절에도 5인 이상 모이면 과태료 10만원[코로나19, 1일] (속보, 必검진)천안시 1명, 부천시 1명, 김포시 1명 확진...진안군 진안미용실 방문자 검사 바람[코로나19, 1일] (속보)구리시 1명, 남양주시 2명, 진안군 2명 확진...거리두기 유지-설명정 5인 이상 10만원 과태료[코로나19, 1일] 정세균 "뭉치면 죽고 흩어지면 산다…올해 설날은 마음으로 함께해야" (속보)인천연수구 2명, 광주광역시 5명, 부산영도구 1명, 부산동래구 1명, 의정부시 2명 확진...정세균, "거리두기 체계 개편하라"[코로나19, 4일] (속보)용산구 9명, 강남구 3명, 영등포구 1명, 화성시 4명 확진...정세균, "거리두기 체계 개편하라"[코로나19, 4일] "이 시국에 제주여행 독려를?"...티몬 '제주여행 프로젝트' 빈축 [속보] 구로구 3명- 중구청 2명- 은평구 5명 확진자 발생 [코로나19, 5일] [必검진] 제주도 아라동 태진해장국 - 인예어린이집 재원아동 확진...임시폐쇄조치 [코로나19, 5일] [상보] 중랑구청 1056~1062번 확진자 동선공개...중화초등학교·롯데리아사가정역점·솔로몬지역아동센터·동원초등학교돌봄교실·첼시주점·골목소머리국밥 등등 [코로나19, 5일] [글로벌 포커스] 美 국립 알레르기·전염병 연구소장, 파우치 "최근 확진자 감소는 백신 접종 효과 아냐" 정세균 "수도권 자영업자 실망 알고 있어, 협조 당부" 정세균 "백신 접종 시작되면 이전 일상으로 되돌아갈 수 있을 것" 더보기+ 주요기사 LF ‘아떼 바네사브루노’,가을 시즌 패션·뷰티 브랜드 통합 기획전 열어 [kdf LF] 오늘부터 개량백신 접종 시작 日 도요타 자동차의 미래형 실험도시 '우븐 시티' 11월초 첫삽 유경준 의원, 'KTX-이음' 승차감 이상 195회…코레일·현대로템 개선방안 찾아야 LG에너지솔루션·포스코홀딩스, '이차전지 사업협력' 협약..."100년 기업으로 함께 성장" KB국민카드, ‘KB페이’ 중심 ‘원 플랫폼’ 서비스 구축 당신만 안 본 뉴스 [속보] 모스크바 주재 美 대사관, 러시아 거주-여행 미국인 철수령...이중 국적 미국인 동원령 징집 경고 [KDF World] 카카오톡 PC·모바일 오류 발생…메시지 전송 속도 저하 및 로그인 불가 [속보] 美 허리케인 '이안(Ian)' 4등급 폭풍 격상...플로리다 비상사태 선포 '강제 주민 대피령' [KDF Disaster] 지수, 글로벌 VVIP 등극, LVMH 아르노 회장과 어깨 나란히 [KDF Dior] 이세영, '법대로 아름다워라' 자연미인의 성숙미란 이런것! [속보] 모스크바 주재 美 대사관, 러시아 거주-여행 미국인 철수령...이중 국적 미국인 동원령 징집 경고 [KDF World] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신뉴스 지수, 송강, 앤 마리도 모두 모여, PARTY~PARTY! [KDF Cartier] 이복현 금감원장, 은행권 이자 장사 지적에 "금리인하요구권 불수용 개선책 요구할 것" 김승연 회장, 한화 창립 70주년 맞아 "늘 새로워지자" LF ‘아떼 바네사브루노’,가을 시즌 패션·뷰티 브랜드 통합 기획전 열어 [kdf LF] 포인터웍스, 최대 캠핑 축제 ‘고아웃 캠프’ 체험 부스 운영 KDFN 인터뷰 윤석열차는 계속 달려야 한다 [안창현의 돋보기] 윤석열 대통령이 취임 5개월을 목전에 두고 외교, 안보, 경제 분야에서 난맥상을 보이며 미국에서 비속어 발언 논란까지 겹쳐 국정 지지율이 급락하는 가뜩이나 어려운 국면에 각료인 박... 농협하나로마트와 양두구육(羊頭狗肉)...점검 2곳 중 1곳은 수입농산물 판매 중 농협하나로마트를 운영하는 농협하나로유통 홈페이지에는 ‘농민과 함께 대한민국에 믿을 수 있는 행복한 먹거리를 제공하는 초일류 농식품 유통전문기업’, ‘진심을 판다! 안심을 산다!’라... 2022 국정감사 민생에 주력해야 [안창현의 돋보기] 2022년 5월에 취임한 윤석열 대통령과 정부에 대한 국정감사가 4일부터 막이 오르며 여당인 국민의힘과 야당인 더불어민주당은 한 치의 양보도 없는 혈전을 예고하고 있다.취임 5개월... What's NEW 내 남자가 낯설게, 프리해 보일 때 바바토스 ‘존? 누구세요?’[KDF varvatos] 아메리칸 맨즈웨어 브랜드 존 바바토스가 반포 솔빛섬 ‘무드서울 by 겟올라잇’에서 10월 12일 가을·겨울 프레젠테이션을 진행한다. 이번 시즌 테마인 ‘When You Are St... 라이언 고슬링, 깊은 눈빛의 젠틀한 트래블맨 변신 [KDF Gucci] 라이언 고슬링이 우수 어린 눈빛으로 먼 곳을 응시하는 트래블러로 변신했다. 고슬링은 구찌 발리제리아에 둘러싸여 낯선 곳을 지나는 여행자가 됐다. 6일 구찌(Gucci)가 공개한 ‘... 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 한국면세뉴스 KoreaDutyFreeNews 등록번호 서울 아 03561 등록일 2015-02-02 발행인 박홍규 편집인 박홍규 청소년보호책임자 박주범 서울특별시 서초구 서초대로55길 3 애니빌딩 6층 (서초동 1696-13) 02-3478-1767 mail to kdf@kdfnews.com / 4067park@naver.com 한국면세뉴스 · 면세뉴스아시아 © 2022 kdfnews.com All rights reserved. 한국면세뉴스의 모든 콘텐츠는 저작권법의 보호를 받으며, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+  </si>
+  <si>
+    <t>컬러슈가, 제주도 방문 관광객 위한 설선물 선보여 &lt; 생활·문화 &lt; 오늘공감 &lt; 기사본문 - 공감신문 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 14:55 (화) 전체기사 로그인 회원가입 전체 딥터뷰 경제공감 경제일반 금융/증권 산업/IT 종합 입법공감 종합 정치공감 종합 오늘공감 사회 생활·문화 인사/부고 종합 지역공감 칼럼공감 최종현 학술원 이슈앤속보 자문위원 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 컬러슈가, 제주도 방문 관광객 위한 설선물 선보여 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 오늘공감 생활·문화 컬러슈가, 제주도 방문 관광객 위한 설선물 선보여 기자명 이다견 입력 2021.02.04 17:40 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 닫기 [공감신문] 이다견 기자 = 청정 제주의 특산물을 기반으로 제주도의 특색있는 제품을 기획하는 기업인 컬러슈가(대표 양병철)가 신축년 설 연휴를 맞아 제주도를 방문하는 관광객을 위한 설선물을 선보였다. 글로벌 초콜렛 브랜드인 허쉬의 국내 라이선스를 보유한 미성패밀리와 콜라보레이션하여 탄생시킨 제품인 '허쉬감귤샌드위치쿠키'는 허쉬와 제주도의 첫번째 만남으로 의미가 남다르다. 진한 초콜렛과 상큼한 제주감귤 필링이 만나 색다른 맛을 선사하며, 100g(4봉입)짜리의 경우 3개 번들로 판매하고 있다. '제주 오메기떡파이'는 제주 명물인 오메기떡을 부담없이 간편하게 즐길 수 있도록 파이로 만들어낸 제품으로 떡을 즐기지 않는 세대까지 즐길 수 있도록 만들었다. '제주 타르트 일러스트 에디션'은 제주 특산품인 감귤, 한라봉, 우도땅콩, 녹차를 베이스로한 타르트 제품으로 제주도를 상징하는 오브제를 일러스트로 그려낸 패키지가 인상적이다. 패키지의 일러스트는 제주 감성을 담아내는 이현미 일러스트레이터의 작품으로 특별한 포장이 없어도 패키지 자체가 포장이 될 수 있다. 또한 제주감귤 농축액을 베이스로 한 ‘마이제주감귤젤리 귤이퐁당’이 있다. 한 상자에 8개의 파우치가 들어 있어 아이들을 위한 선물로 제격이며 젤리 안쪽에서 진하게 터지는 감귤농축액이 첨가되었다. 컬러슈가 양병철 대표는 “설 연휴를 맞아 평소보다 많은 관광객들이 제주도를 찾을 것으로 예상하고 있다며 안전한 거리두기 여행을 당부하며 컬러슈가가 준비한 다양한 기념품들과 함께하는 풍성한 설명절이 되기를 바란다”고 전했다. 저작권자 © 공감신문 무단전재 및 재배포 금지 이다견 news1@gokorea.kr 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버블로그(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 주요기사 서병수 의원, 부산진구갑 지역 행안부 특별교부세 14억 원 확보 최형두 “文정부·한수원, ‘월성1호기 조기폐쇄 손실보상’ 법률자문 받고도 무시” NS홈쇼핑, 'NS Cookfest 2022 in IKSAN'에 공익 프로그램 마련 ‘방탄X쿠키런:킹덤' 해외 팬들 통했을까..앱 현황과 검색량은? [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 치열한 카드 빅4 경쟁…앱 사용자 분포는? 당신만 안 본 뉴스 "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? '천원짜리 변호사' 김지은, 낯익다 했더니 ITZY 류진·한소희·손나은 닮은꼴 '마약 혐의' 돈스파이크 입건에 성하윤 프로필·직업·인스타 관심 [특징주] 오성첨단소재 주가 급등세… 이유는? '소상공인 손실보상 2분기' 신청 시작... 대상·신청 방법은? [내일날씨] 전국 흐리고 비내려...일부 돌풍에 천둥·번개까지 '확인 방법 이렇게' 상생소비복권 당첨자 30일 발표...지급일 언제? "너무 무서웠다" 돈스파이크 와이프 성하윤 두려움에 떨었던 이유는? 오늘공감 ‘방탄X쿠키런:킹덤' 해외 팬들 통했을까..앱 현황과 검색량은? 치열한 카드 빅4 경쟁…앱 사용자 분포는? '그림으로의 치유'…장수희 작가, 제8회 개인전 '노스텔지아' 개최 서울시교육청, 오는 28일까지 ‘빅데이터 활용 아이디어’ 공모 아빠의 무관심이 미덕(?)...초딩 아빠와 교장샘이 함께 춤을 추는 학교 인기기사 1 [조봉현의 스타트업경제] 과거와 다른 高환율, 어디로 튈까? 2 조경태, "국민을 피해자로 만드는 '국회의원 면책특권' 폐지하라" 3 박수영 “국립대 교수 일가에게 놀아난 한전 자회사들…정부가 전수조사 해야" 4 유럽 출장길 오른 손태승 회장… UNEP FI 등과 국제협력 논의 5 외국인 고액 체납자 절반은 출국… 국세청 관리체계 구멍 6 대한민국 시·도의회의장협의회 김현기 회장, 제2회 중앙지방협력회의 참석 7 [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 8 5년간 국민 1인당 세부담 300만원 늘어 9 양정숙 의원, "보험사, 은행, 정보보안·개인정보 보호 인증 안 받아" 10 김상훈 의원, 작년 국민 1인당 세금부담 1천199만원…2017년 이후 300만원 증가 최신기사 서병수 의원, 부산진구갑 지역 행안부 특별교부세 14억 원 확보 최형두 “文정부·한수원, ‘월성1호기 조기폐쇄 손실보상’ 법률자문 받고도 무시” NS홈쇼핑, 'NS Cookfest 2022 in IKSAN'에 공익 프로그램 마련 ‘방탄X쿠키런:킹덤' 해외 팬들 통했을까..앱 현황과 검색량은? [박상기의 재미있는 협상이야기] 바이든의 칩4 와 IRA가 촉발한, 한국 미국 협상총력전 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 영등포구 은행로 58. 1204호(삼도오피스텔) 대표전화 : 02-782-9872 팩스 : 02-783-1358 청소년보호책임자 : 이성철 법인명 : (주)공감신문 제호 : 공감신문 등록번호 : 서울 다 10955 등록일 : 2014-04-17 발행일 : 2017-05-01 대표이사 : 방성식·전규열 발행인 겸 편집인 : 전규열 공감신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 공감신문. All rights reserved. mail to news1@gokorea.kr 위로 전체메뉴 전체기사 입법공감 전체 종합 경제공감 전체 경제일반 금융/증권 산업/IT 종합 딥터뷰 칼럼공감 전체 칼럼 생활경제칼럼 박영철 편집고문 칼럼 오늘공감 전체 사회 생활·문화 인사/부고 종합 정치공감 전체 종합 이슈앤속보 최종현 학술원 자문위원 지역공감 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 스마트관광·청정바이오·그린에너지 198억 투입 &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 스마트관광·청정바이오·그린에너지 198억 투입 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도, 스마트관광·청정바이오·그린에너지 198억 투입 기자명 진순현 기자 입력 2021.02.04 12:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 코로나19 대비 지역주력산업육성계획 공고...오는 22일부터 온라인 접수 제주도가 코로나19로 인한 팬데믹 위기 상황을 극복하고, 한국판 뉴딜과 개편된 지역주력산업의 성공적인 추진을 위해 드라이브를 걸 전망이다. 제주특별자치도는 제주테크노파크, 제주지역사업평가단과 함께 지역주력산업육성사업 지원계획을 공고한다고 4일 밝혔다. 이번 지역주력산업은 △지역뉴딜산업 육성 △지역 전략수요 △뉴딜과 연계된 중앙정부(중소벤처기업부)의 방침에 따라 개편한다. 우선 지역 특화도가 높은 청정헬스푸드산업에서 제주자원을 활용해 적용 가능한 ‘청정바이오산업’으로 개편한다. 또한 지역뉴딜과 연계한 신산업 육성을 위해 지능형 관광콘텐츠산업을 ‘스마트관광산업’으로 변경한다. 이와 함께 제주 전기차충전서비스 규제자유특구 및 그린뉴딜과의 연계강화를 위해 스마트그리드산업을 ‘그린에너지산업’으로 확대 시행한다. 지역산업 육성을 위한 예산은 지난해 성과 인센티브 확보 등으로 약 23억원이 증액된 198억5000만원(국비 141억6800만, 지방비 56억8200만)이며, R&amp;D 지원에 112억9600만원, 비R&amp;D지원에 85억5400만원이 투입될 예정이다. 올해 지역특화산업은 △팬데믹 시대에 대응하기 위한 면역강화식품, 간편식 가공식품 등을 위한 청정바이오산업 △관광·문화상품의 비대면화를 위한 실감형콘텐츠, 빅데이터 활용서비스 등을 위한 스마트관광산업 △카본프리 아일랜드 2020 비전을 달성하기 위한 제주형 뉴딜과 연계하는 그린에너지산업 분야를 집중 육성할 계획이다. 제주도는 지난달 29일부터 공모를 시작, 오는 22일부터 다음달 4일까지 온라인을 통해 접수받을 예정이다. 윤형석 도 미래전략국장은 “현재까지의 지원시스템과는 달리 코로나19로 인해 힘들어하는 지역기업들에게 꼭 필요한 사업 프로그램을 지원해 새로운 도약의 발판을 마련하고 혁신 경쟁력 확보에도 도움을 될 수 있도록 최선을 다하겠다”고 말했다. 진순현 기자 jinjin3808@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
   </si>
   <si>
     <t>해외입국·관광객 잇단 확진…제주도, 설 연휴 방역 비상 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 해외입국·관광객 잇단 확진…제주도, 설 연휴 방역 비상 파이낸셜뉴스입력 2021.02.03 15:55수정 2021.02.03 15:55 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 10~14일 14만명 이상 제주 방문 예상코로나19 타지역발 유입 방지에 총력 코로나19 확진자 지역별 현황(2일) [뉴스1] ■ 2일 1명 신규 확진…수도권 확진자와 접촉 [제주=좌승훈 기자] 제주 여행을 하던 수도권 거주자가 코로나19에 확진됐다. 3일 제주도는 전날 하루 동안 461명에 대해 코로나19 진단검사를 진행한 결과 신규 확진자가 1명(제주 524번) 발생했다고 밝혔다. 역학조사 결과, 제주 524번 확진자는 타 지역 확진자와 접촉한 것으로 확인됐다. 524번 확진자는 지난달 29일 김포발 제주행 항공기를 타고 입도했다. 제주에 머물던 중 지난 2일 수도권에 거주하는 가족이 확진 판정을 받으면서 접촉자로 통보돼 코로나19 진단 검사를 진행한 결과, 최종 양성으로 확인됐다. 이 확진자는 현재까지 코로나19 관련 증상은 보이지 않고 있으며, 제주의료원 음압병상으로 옮겨져 격리 치료 중이다. 이와 함께 이 확진자와 관련해 7명이 코로나19 진단검사를 받고 있다. 이중 2명은 음성 판정을 받았으며, 나머지는 검사 결과를 기다리고 있다. 제주도 방역당국은 해당 확진자의 진술을 확보하고 신용카드 사용내역, 현장 CCTV 분석을 통해 세부 이동 동선을 확인하고 있다. 한편 지난 1월24일 이후 제주에서 확진판정을 받은 6명 중 5명이 해외입국자 또는 수도권 방문 이력자인 것으로 파악됐다. 방역당국은 특히 오는 10~14일 설 연휴 기간에 모두 14만3000명이 제주를 찾을 것으로 예상됨에 따라 타 지역발 코로나19 유입 방지에 총력을 기울이고 있다. 지역 확산이 진정세로 접어들었지만, 관광객들이 몰려오며 다시 확산할 수 있기 때문이다. 앞서 원희룡 제주지사는 지난 1일 주간정책 조정회의에서 “사회적 거리두기의 피로가 심해지면서 소규모로 제주를 찾는 입도객들이 많을 것으로 예상된다”며 “공항과 항만의 특별 입도절차를 철저히 시행하고 모든 입도객들에 대해 방역 대응 대책을 철저히 안내하라”고 당부했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
   </si>
   <si>
-    <t>대한항공, 동해안 제주도 일본 도는 국제선 무착륙 관광비행 추진 글로벌 Who is? 기업과산업 금융 시장과머니 시민과경제 정치·사회 인사이트 최신뉴스 검색 검색 닫기 기업과산업  항공·물류 대한항공, 동해안 제주도 일본 도는 국제선 무착륙 관광비행 추진 조장우 기자 jjw@businesspost.co.kr 2021-02-03 18:22:49 확대 축소 공유하기 대한항공이 국제선 관광비행을 운영한다. 코로나19 사태로 운항을 못하고 있는 대형항공기를 활용할 수 있다는 점을 고려한 것으로 보인다. ▲ 대한항공 항공기. &lt;대한항공&gt; 3일 국토교통부와 대한항공 안팎의 말을 종합하면 대한항공은 27일 오전 10시30분 인천공항을 출발해 동해안과 대한해협, 제주도 상공을 날고 오후 1시 인천공항으로 돌아오는 관광노선을 국토부로부터 허가받았다. 대한항공이 추진하는 국제선 관광비행을 이용하려면 여권을 반드시 지참해야 한다. 일본 상공을 경유하기 때문이다. 대한항공은 국제선 관광비행에 장거리용 대형항공기 A380-800 기종을 투입할 준비를 하고 있는 것으로 전해졌다. 대한항공의 관광비행에 투입될 것으로 예상되는 A380-800 기종은 코로나19로 취항할 수 있는 공항이 줄어들면서 많은 항공기가 주기장에 대기하고 있는 것으로 전해졌다. 주기장은 주차장과 비슷한 말로 공항에서 항공기가 착륙 뒤 머무는 곳을 뜻한다. 대한항공 관계자는 “현재 관광전세기 운항을 위해 필요한 준비절차를 밟고 있으며 판매시점은 대리점 등과 협의 중이다”고 말했다. [비즈니스포스트 조장우 기자] &lt;저작권자(c) 비즈니스포스트 무단전재 및 재배포금지&gt; 조장우 기자의 다른기사보기 인기기사 러시아발 안보 불안에 유럽 군비 확대, 현대로템 K2전차 수출 기회 조장우 기자 증권사 국감 도마에 오를까 긴장, 공매도와 전산장애에 관심 집중 박안나 기자 컬리 관심은 '오아시스 상장'? 김슬아가 ‘1호 상장’에 욕심 안 내는 이유 남희헌 기자 테슬라 자율주행 카메라모듈 납품 잡아라, 삼성전기 LG이노텍 경쟁 치열 나병현 기자 코로나19 백신 공급 과잉, 변이 대응 뛰어난 mRNA 백신 경쟁력 부각 임한솔 기자 댓글 (0) 등록 - 200자까지 쓰실 수 있습니다. (현재 0 byte / 최대 400byte) - 저작권 등 다른 사람의 권리를 침해하거나 명예를 훼손하는 댓글은 관련 법률에 의해 제재를 받을 수 있습니다. - 타인에게 불쾌감을 주는 욕설 등 비하하는 단어가 내용에 포함되거나 인신공격성 글은 관리자의 판단에 의해 삭제 합니다. 신문사소개 윤리강령 기사심의규정 인재채용 기사제보 광고문의 불편신고 이메일무단수집거부 청소년보호정책 개인정보처리방침 서울특별시 강남구 삼성로100길 15 명당빌딩 3-4층 대표전화 : 1800-6522 편집국 070-4010-8512 사업본부 070-4010-7078 팩스 : 070-4015-8658 등록번호 : 서울 아 02897 제호: 비즈니스포스트 등록일: 2013.11.13 발행·편집인 : 강석운 발행일자: 2013년 12월 2일 청소년보호책임자 : 강석운 ISSN : 2636-171X Copyright ? 2013 비즈니스포스트. All rights reserved. 열린보도원칙 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 박상유 1800-6522 bspost@businesspost.co.kr</t>
-  </si>
-  <si>
-    <t>제주도의회, 전국 최초 '웰니스 관광' 지원 조례 만든다 검색 본문 바로가기 회사정보 바로가기 2022.10.04 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도의회, 전국 최초 '웰니스 관광' 지원 조례 만든다 박호형 의원, '웰니스 관광 육성·지원 조례안' 발의 (제주=뉴스1) 오미란 기자					| 2021-02-01 13:59 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도의회 포스트 코로나 대응 특별위원회 박호형 의원(제주시 일도2동 갑·더불어민주당).(제주도의회 제공)© News1 제주도의회가 전국 최초로 '웰니스(Wellness) 관광'을 지원하는 조례 제정을 추진한다.제주도의회 포스트 코로나 대응 특별위원회 박호형 의원(제주시 일도2동 갑·더불어민주당)은 '제주도 웰니스 관광 육성 및 지원 조례안'을 대표 발의할 예정이라고 1일 밝혔다.웰니스는 웰빙(Well-being)과 건강(Fitness)의 합성어로, 웰니스 관광은 스파와 휴양, 미용, 치료 등 건강과 치유 목적의 관광을 말한다.시장 규모가 워낙 큰 데다 최근 신종 코로나 바이러스 감염증(코로나19) 사태로 부가가치가 높아지면서 전 세계적으로 각광받고 있다.조례안은 제주도지사로 하여금 웰니스 관광을 육성하기 위한 종합적인 시책을 마련하고, 3년 마다 관련 실태조사를 실시해 그 결과를 시책에 반영하도록 했다.이와 함께 3년 단위의 웰니스 관광지·관광시설·관광상품 인증제를 도입해 홍보, 마케팅 등의 지원을 할 수 있도록 하는 한편, 민·관이 함께 참여하는 '제주도 웰니스 관광 협의체'도 구성할 수 있도록 했다.박 의원은 "웰니스 관광 육성은 원희룡 제주도지사의 공약임에도 여전히 관련 사업 추진이 지지부진한 실정"이라며 "제주가 웰니스 관광을 선도하기 위해서는 무엇 보다 법적 지원 근거와 전폭적인 지원이 필요하다"며 이번 조례안 발의 배경을 밝혔다. mro1225@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 모태범♥임사랑 수영장 데이트…스킨십 폭발 이상보 "마약검사비 떠 넘기고 '무혐의' 한줄" 13세연하 우즈벡 아내에 폭언+손가락욕 충격 황보라♥차현우, 혼인신고…임신 때문에 먼저 최성국, 24세 연하 연인과 결혼 "올가을 예식" 황보라 "이미 차현우와 혼인신고…시험관 임신 준비" 오늘의 핫 포토 [국감] 행안부 국감 증인선서 북한 중거리 탄도미사일 발사, 일본 상공 통과 디자인의 무한상상 1심 무죄 선고 받은 최강욱 더불어민주당 의원 [국감] 국감 준비 분주한 피감기관 공무원들 민주, 외교참사·정치탄압 윤석열 정권 규탄대회 쌀쌀해진 아침 탭메뉴 스포츠 연예 스타일 스포츠 울산과 전북의 1년 농사가 걸린 벼랑 끝 2연전이 온다 [인터뷰] 'SSG 유일 3할타자' 최지훈 "몸이 찢어지더라도 우승할 것" 2경기만 남은 이대호, 이대호 없는 미래를 준비해야 할 롯데 임성재, 시즌 첫 미션은 '타이틀 방어'…슈라이너스 오픈 7일 개막 연예 로이킴, 14일 컴백 확정…잠식된 배경 속 공허한 표정 '공조2', 식지 않은 인기로 또 1위…621만 돌파 [Nbox] 르세라핌 홍은채, 코로나19 확진…TMA, 멤버 4명 참석 [공식] '동상이몽2' 합류 김소영 "'엄친아' 남편 오상진, 한량처럼 살고 싶어해"(종합) 스타일 구준엽♥서희원, 샤워 가운만 입고 소파에서...눈에서 꿀떨어지는 투샷 [N화... 송혜교, 그림 같은 미모...우아함 넘치는 '가을여신' [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
-  </si>
-  <si>
-    <t>제주도의회, 웰니스 관광 육성 지원 조례 추진 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도의회, 웰니스 관광 육성 지원 조례 추진 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도의회, 웰니스 관광 육성 지원 조례 추진 송고시간2021-02-01 17:09 요약 beta 닫기 제주도의회가 웰니스 관광에 대한 법적 지원 근거를 마련하기 위해 조례 제정을 추진한다. 제주특별자치도의회 포스트 코로나 대응특별위원회 소속 박호형 의원은 웰니스 관광 육성 지원 조례 제정에 나선다고 1일 밝혔다. 박 의원은 "웰니스 관광은 코로나19 사태로 인해 점차 시장규모가 커지고 있지만, 제주도정의 제주형 웰니스 관광상품 개발육성 추진 의지는 미흡하다"며 "제주가 웰니스 관광의 선도지역으로 나서기 위해 법 제도적 지원 근거를 마련하는 등 전폭적인 지원이 필요하다"고 조례제정 취지를 설명했다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 변지철 기자 = 제주도의회가 웰니스 관광에 대한 법적 지원 근거를 마련하기 위해 조례 제정을 추진한다. 제주 웰니스 관광지 (제주=연합뉴스) 제주도와 제주관광공사가 선정한 제주 웰니스 관광지 15곳 중 한남 머체왓 숲길. [제주관광공사 제공. 재판매 및 DB 금지] photo@yna.co.kr 제주특별자치도의회 포스트 코로나 대응특별위원회 소속 박호형 의원은 웰니스 관광 육성 지원 조례 제정에 나선다고 1일 밝혔다. 웰니스란 'Well-being'과 'Happiness', 'Fitness'의 합성어로 신체와 정신뿐만 아니라 사회적으로도 건강한 상태를 뜻한다. 광고 박 의원은 "웰니스 관광은 코로나19 사태로 인해 점차 시장규모가 커지고 있지만, 제주도정의 제주형 웰니스 관광상품 개발육성 추진 의지는 미흡하다"며 "제주가 웰니스 관광의 선도지역으로 나서기 위해 법 제도적 지원 근거를 마련하는 등 전폭적인 지원이 필요하다"고 조례제정 취지를 설명했다. 박 의원이 대표 발의할 조례안에는 웰니스 관광 협의체 구성, 웰니스 관광 인증제 도입 방안, 웰니스 관광을 통한 상품개발, 지역연계 주민소득 창출을 위한 행·재정적 지원 사항들이 담겨있다. 박 의원은 2일 도의회 대회의실에서 제주도 관광부서와 학계가 참여하는 간담회를 열어 조례 제정에 대한 의견을 교환할 예정이다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/02/01 17:09 송고 #제주도의회 #관광 #웰니스 #조례 #박호형 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:19 [영상] "K-방산, 올해 28조원 수출 전망"…독일·중국 제치고 빅4 진입? 영상 기사 재생시간 02:04 [영상] 펑! 드럼통 터지고 사람 날아가고…스페인 과학축제 중 폭발사고 영상 기사 재생시간 02:52 [영상] 우크라, 푸틴 합병 선언 하루만에 요충지 탈환…핵전쟁 위험고조 영상 기사 재생시간 01:54 [영상] 넘어지고 깔리며…인도네시아 축구장서 난동, 최소 129명 사망 영상 기사 재생시간 01:36 [영상] 배달통 들고 건물 위로 슝!…"첫 음식배달 제트맨" SNS 시끌 영상 기사 재생시간 03:07 [영상] 사방이 뻥 뚫린 짓다 만 아파트에 사는 중국인들…무슨 일? 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 尹대통령 풍자 그림, 학생공모전 수상…전시 찬반 논란 이스라엘 북부 유적지서 동로마제국 금화 무더기 발굴 YG, 제니·뷔 사생활 사진 유포자 경찰에 수사의뢰 킴 카다시안, 인스타로 가상화폐 '뒷광고'…18억원 벌금 폭탄 인천서 실종된 치매 노인, 13일 만에 수원서 찾아 구글 번역기에 '김치용 배추' 넣으니…'Chinese cabbage' 검색 "월급 줄 돈 없다"…기증받은 인체조직 헐값 판매한 공공기관 횡단보도 건너다 택시에 치인 여중생, 보름 만에 숨져 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 횡단보도 건너다 택시에 치인 여중생, 보름 만에 숨져 이스라엘 북부 유적지서 동로마제국 금화 무더기 발굴 YG, 제니·뷔 사생활 사진 유포자 경찰에 수사의뢰 "월급 줄 돈 없다"…기증받은 인체조직 헐값 판매한 공공기관 文 전 대통령, 감사원 서면조사 요구에 "대단히 무례한 짓"(종합) 文 전 대통령, 감사원 서면조사 요구에 "대단히 무례한 짓"(종합) 정부조직개편안 조만간 발표…여가부 폐지·동포청 신설 관측(종합) 野 "尹정부가 노린 것은 결국 文…대국민 선전포고" 강력 규탄 북한, 중거리탄도미사일 발사…일본 상공 넘어 태평양 낙하(종합2보) 정부조직개편안 조만간 발표…여가부 폐지·동포청 신설 관측(종합2보) 킴 카다시안, 인스타로 가상화폐 '뒷광고'…18억원 벌금 폭탄(종합) 심야택시 호출료 인상…배달로 넘어간 기사 유턴시킨다 10조원 규모 증안펀드 이달 중순 재가동한다 킴 카다시안, 인스타로 가상화폐 '뒷광고'…벌금 폭탄 시장충격 선제대응…당국, 증안펀드에 공매도금지 카드 '만지작' 횡단보도 건너다 택시에 치인 여중생, 보름 만에 숨져 "월급 줄 돈 없다"…기증받은 인체조직 헐값 판매한 공공기관 [1보] '채널A 기자 명예훼손 혐의' 최강욱 1심 무죄 개천절 세종대로서 3만명 대규모 집회…도심 혼잡(종합) "이제 칸막이 없이 만나요" 오늘부터 요양병원 접촉면회 허용 이스라엘 북부 유적지서 동로마제국 금화 무더기 발굴 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 "美 여자축구 성추행 뿌리 깊은 악습"…조사 보고서 공개 인도네시아 축구장 참사에 어린이들도 참변…17명 압사 킴 카다시안, 인스타로 가상화폐 '뒷광고'…18억원 벌금 폭탄(종합) "美 여자축구 성추행 뿌리 깊은 악습"…조사 보고서 공개 손흥민, 껄끄러운 프랑크푸르트 상대로 UCL 첫 골 도전 프로야구 SSG 1위 확정 연기…최하위 한화에 발목(종합) '가을 여왕' 김수지, 3주 연속 우승＋ 타이틀 방어 도전 "서울-평양 올림픽 유치 제안서에 '北인프라 구축비용' 22조원" YG, 제니·뷔 사생활 사진 유포자 경찰에 수사의뢰 '텐트 밖은' 제작진 "사람이 사람으로 보이는 예능이 목표" 싱어송라이터 알렉 벤저민 "한국은 지구상 가장 좋아하는 곳" "문체부 산하 공공기관 31곳 중 16곳, 정원 536명 감축" "3년 만에 정상화된 부산영화제, 새로운 개념의 영화제로 첫발" 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 02:04 [영상] 펑! 드럼통 터지고 사람 날아가고…스페인 과학축제 중 폭발사고 영상 기사 재생시간 02:52 [영상] 우크라, 푸틴 합병 선언 하루만에 요충지 탈환…핵전쟁 위험고조 영상 기사 재생시간 00:36 [영상구성] '지옥'이 된 그라운드…인도네시아 축구장 참사 뉴스 합참 "北 탄도미사일 4천500㎞ 비행"…추가도발 대비 추적·감시 통일부 "남북연락사무소 업무개시 통화 안돼…원인 파악중" 尹 "감사원, 독립운영 헌법기관…대통령 언급은 적절치 않아" 여가부 폐지하고 복지부 내 차관급 '여성가족 본부' 신설 검토 영빈관 포기하고 용산청사 이용키로…박물관·고궁 등도 검토 광고 댓글 많은 뉴스 文 전 대통령, 감사원 서면조사 요구에 "대단히 무례한 짓"(종합) 댓글수 76 野 "尹정부가 노린 것은 결국 文…대국민 선전포고" 강력 규탄 댓글수 40 尹대통령 풍자 그림, 학생공모전 수상…전시 찬반 논란 댓글수 26 與 "전직 대통령이라고 성역 있을 순 없어"…'文 정조준' 맞불 댓글수 13 횡단보도 건너다 택시에 치인 여중생, 보름 만에 숨져 댓글수 13 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+    <t>대한항공, 동해안 제주도 일본 도는 국제선 무착륙 관광비행 추진 글로벌 Who is? 기업과산업 금융 시장과머니 시민과경제 정치·사회 인사이트 최신뉴스 검색 검색 닫기 기업과산업  항공·물류 대한항공, 동해안 제주도 일본 도는 국제선 무착륙 관광비행 추진 조장우 기자 jjw@businesspost.co.kr 2021-02-03 18:22:49 확대 축소 공유하기 대한항공이 국제선 관광비행을 운영한다. 코로나19 사태로 운항을 못하고 있는 대형항공기를 활용할 수 있다는 점을 고려한 것으로 보인다. ▲ 대한항공 항공기. &lt;대한항공&gt; 3일 국토교통부와 대한항공 안팎의 말을 종합하면 대한항공은 27일 오전 10시30분 인천공항을 출발해 동해안과 대한해협, 제주도 상공을 날고 오후 1시 인천공항으로 돌아오는 관광노선을 국토부로부터 허가받았다. 대한항공이 추진하는 국제선 관광비행을 이용하려면 여권을 반드시 지참해야 한다. 일본 상공을 경유하기 때문이다. 대한항공은 국제선 관광비행에 장거리용 대형항공기 A380-800 기종을 투입할 준비를 하고 있는 것으로 전해졌다. 대한항공의 관광비행에 투입될 것으로 예상되는 A380-800 기종은 코로나19로 취항할 수 있는 공항이 줄어들면서 많은 항공기가 주기장에 대기하고 있는 것으로 전해졌다. 주기장은 주차장과 비슷한 말로 공항에서 항공기가 착륙 뒤 머무는 곳을 뜻한다. 대한항공 관계자는 “현재 관광전세기 운항을 위해 필요한 준비절차를 밟고 있으며 판매시점은 대리점 등과 협의 중이다”고 말했다. [비즈니스포스트 조장우 기자] &lt;저작권자(c) 비즈니스포스트 무단전재 및 재배포금지&gt; 조장우 기자의 다른기사보기 인기기사 삼성전자 파운드리 생산지 다변화 검토, 경계현 눈길은 유럽과 인도에 나병현 기자 윤석열 20대 지지율 대위기, 여가부 폐지 추진으로 '이대남' 마음 돌릴까 김남형 기자 쌍용차 중형SUV 토레스 판매호조, 곽재선 '전기차 전환' 든든한 기반 허원석 기자 대만 폭스콘 미국 생산 전기차 선보여, 애플 자율주행차 ‘애플카’ 예고편? 김용원 기자 키움증권 "SK바이오사이언스 목표주가 하향, 백신 생산 줄어 실적 부진" 임한솔 기자 댓글 (0) 등록 - 200자까지 쓰실 수 있습니다. (현재 0 byte / 최대 400byte) - 저작권 등 다른 사람의 권리를 침해하거나 명예를 훼손하는 댓글은 관련 법률에 의해 제재를 받을 수 있습니다. - 타인에게 불쾌감을 주는 욕설 등 비하하는 단어가 내용에 포함되거나 인신공격성 글은 관리자의 판단에 의해 삭제 합니다. 신문사소개 윤리강령 기사심의규정 인재채용 기사제보 광고문의 불편신고 이메일무단수집거부 청소년보호정책 개인정보처리방침 서울특별시 강남구 삼성로100길 15 명당빌딩 3-4층 대표전화 : 1800-6522 편집국 070-4010-8512 사업본부 070-4010-7078 팩스 : 070-4015-8658 등록번호 : 서울 아 02897 제호: 비즈니스포스트 등록일: 2013.11.13 발행·편집인 : 강석운 발행일자: 2013년 12월 2일 청소년보호책임자 : 강석운 ISSN : 2636-171X Copyright ? 2013 비즈니스포스트. All rights reserved. 열린보도원칙 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 박상유 1800-6522 bspost@businesspost.co.kr</t>
+  </si>
+  <si>
+    <t>제주도의회, 전국 최초 '웰니스 관광' 지원 조례 만든다 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도의회, 전국 최초 '웰니스 관광' 지원 조례 만든다 박호형 의원, '웰니스 관광 육성·지원 조례안' 발의 (제주=뉴스1) 오미란 기자					| 2021-02-01 13:59 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도의회 포스트 코로나 대응 특별위원회 박호형 의원(제주시 일도2동 갑·더불어민주당).(제주도의회 제공)© News1 제주도의회가 전국 최초로 '웰니스(Wellness) 관광'을 지원하는 조례 제정을 추진한다.제주도의회 포스트 코로나 대응 특별위원회 박호형 의원(제주시 일도2동 갑·더불어민주당)은 '제주도 웰니스 관광 육성 및 지원 조례안'을 대표 발의할 예정이라고 1일 밝혔다.웰니스는 웰빙(Well-being)과 건강(Fitness)의 합성어로, 웰니스 관광은 스파와 휴양, 미용, 치료 등 건강과 치유 목적의 관광을 말한다.시장 규모가 워낙 큰 데다 최근 신종 코로나 바이러스 감염증(코로나19) 사태로 부가가치가 높아지면서 전 세계적으로 각광받고 있다.조례안은 제주도지사로 하여금 웰니스 관광을 육성하기 위한 종합적인 시책을 마련하고, 3년 마다 관련 실태조사를 실시해 그 결과를 시책에 반영하도록 했다.이와 함께 3년 단위의 웰니스 관광지·관광시설·관광상품 인증제를 도입해 홍보, 마케팅 등의 지원을 할 수 있도록 하는 한편, 민·관이 함께 참여하는 '제주도 웰니스 관광 협의체'도 구성할 수 있도록 했다.박 의원은 "웰니스 관광 육성은 원희룡 제주도지사의 공약임에도 여전히 관련 사업 추진이 지지부진한 실정"이라며 "제주가 웰니스 관광을 선도하기 위해서는 무엇 보다 법적 지원 근거와 전폭적인 지원이 필요하다"며 이번 조례안 발의 배경을 밝혔다. mro1225@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 "연하 남편·여직원, 시댁서 동거…시모는 며느리 대접" 선우은숙 "만난지 석달…유영재 '나 믿고 함께하자' 말에 결혼" 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" '음주운전' 신혜성, 측정 거부해 체포 "죄송…차량 절도는 아냐" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 대통령실까지 행진하는 배민 라이더 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 취업, 그 간절한 마음 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 탭메뉴 스포츠 연예 스타일 스포츠 9부 능선 넘었어도 긴장 풀지 않은 홍명보 감독 "아직 우승 아닌데…" 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도의회, 웰니스 관광 육성 지원 조례 추진 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도의회, 웰니스 관광 육성 지원 조례 추진 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도의회, 웰니스 관광 육성 지원 조례 추진 송고시간2021-02-01 17:09 요약 beta 닫기 제주도의회가 웰니스 관광에 대한 법적 지원 근거를 마련하기 위해 조례 제정을 추진한다. 제주특별자치도의회 포스트 코로나 대응특별위원회 소속 박호형 의원은 웰니스 관광 육성 지원 조례 제정에 나선다고 1일 밝혔다. 박 의원은 "웰니스 관광은 코로나19 사태로 인해 점차 시장규모가 커지고 있지만, 제주도정의 제주형 웰니스 관광상품 개발육성 추진 의지는 미흡하다"며 "제주가 웰니스 관광의 선도지역으로 나서기 위해 법 제도적 지원 근거를 마련하는 등 전폭적인 지원이 필요하다"고 조례제정 취지를 설명했다. 요약 정보 인공지능이 자동으로 줄인 '세 줄 요약' 기술을 사용합니다. 전체 내용을 이해하기 위해서는 기사 본문과 함께 읽어야 합니다. 제공 = 연합뉴스&amp;줌인터넷® 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 변지철 기자 = 제주도의회가 웰니스 관광에 대한 법적 지원 근거를 마련하기 위해 조례 제정을 추진한다. 제주 웰니스 관광지 (제주=연합뉴스) 제주도와 제주관광공사가 선정한 제주 웰니스 관광지 15곳 중 한남 머체왓 숲길. [제주관광공사 제공. 재판매 및 DB 금지] photo@yna.co.kr 제주특별자치도의회 포스트 코로나 대응특별위원회 소속 박호형 의원은 웰니스 관광 육성 지원 조례 제정에 나선다고 1일 밝혔다. 웰니스란 'Well-being'과 'Happiness', 'Fitness'의 합성어로 신체와 정신뿐만 아니라 사회적으로도 건강한 상태를 뜻한다. 광고 박 의원은 "웰니스 관광은 코로나19 사태로 인해 점차 시장규모가 커지고 있지만, 제주도정의 제주형 웰니스 관광상품 개발육성 추진 의지는 미흡하다"며 "제주가 웰니스 관광의 선도지역으로 나서기 위해 법 제도적 지원 근거를 마련하는 등 전폭적인 지원이 필요하다"고 조례제정 취지를 설명했다. 박 의원이 대표 발의할 조례안에는 웰니스 관광 협의체 구성, 웰니스 관광 인증제 도입 방안, 웰니스 관광을 통한 상품개발, 지역연계 주민소득 창출을 위한 행·재정적 지원 사항들이 담겨있다. 박 의원은 2일 도의회 대회의실에서 제주도 관광부서와 학계가 참여하는 간담회를 열어 조례 제정에 대한 의견을 교환할 예정이다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2021/02/01 17:09 송고 #제주도의회 #관광 #웰니스 #조례 #박호형 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
   </si>
 </sst>
 </file>
@@ -431,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -464,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -475,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,7 +579,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -507,6 +600,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -516,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -527,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -538,7 +634,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -547,6 +643,220 @@
       </c>
       <c r="B11" t="s">
         <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
